--- a/JupyterNotebooks/AvgHW/Alpha4F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.050541219657053</v>
+        <v>0.989639002269308</v>
       </c>
       <c r="D3">
         <v>0.9824975127660879</v>
       </c>
       <c r="E3">
-        <v>0.989639002269308</v>
+        <v>0.9824975127660879</v>
       </c>
       <c r="F3">
         <v>1.050541219657053</v>
       </c>
       <c r="G3">
-        <v>0.9816293827479794</v>
+        <v>1.050541219657053</v>
       </c>
       <c r="H3">
         <v>0.9555350363648139</v>
       </c>
       <c r="I3">
+        <v>0.9816293827479792</v>
+      </c>
+      <c r="J3">
         <v>1.002537094226045</v>
-      </c>
-      <c r="J3">
-        <v>0.9824975127660879</v>
       </c>
       <c r="K3">
         <v>1.050541219657053</v>
@@ -665,7 +677,7 @@
         <v>1.018304738587376</v>
       </c>
       <c r="T3">
-        <v>0.9937298746718813</v>
+        <v>0.9937298746718811</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,49 +688,49 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.097522422524745</v>
+        <v>0.9540881241053801</v>
       </c>
       <c r="D4">
         <v>0.8833470588205872</v>
       </c>
       <c r="E4">
-        <v>0.9540881241053798</v>
+        <v>0.8833470588205872</v>
       </c>
       <c r="F4">
         <v>1.097522422524745</v>
       </c>
       <c r="G4">
-        <v>0.9505537298916452</v>
+        <v>1.097522422524745</v>
       </c>
       <c r="H4">
         <v>0.9090543681114364</v>
       </c>
       <c r="I4">
-        <v>0.9847854886103486</v>
+        <v>0.9505537298916452</v>
       </c>
       <c r="J4">
-        <v>0.8833470588205872</v>
+        <v>0.9847854886103488</v>
       </c>
       <c r="K4">
         <v>1.097522422524745</v>
       </c>
       <c r="L4">
-        <v>0.9540881241053798</v>
+        <v>0.9540881241053801</v>
       </c>
       <c r="M4">
-        <v>0.9187175914629835</v>
+        <v>0.9187175914629837</v>
       </c>
       <c r="N4">
-        <v>0.9187175914629835</v>
+        <v>0.9187175914629837</v>
       </c>
       <c r="O4">
-        <v>0.9154965170124677</v>
+        <v>0.9154965170124679</v>
       </c>
       <c r="P4">
-        <v>0.9783192018169039</v>
+        <v>0.978319201816904</v>
       </c>
       <c r="Q4">
-        <v>0.9783192018169039</v>
+        <v>0.978319201816904</v>
       </c>
       <c r="R4">
         <v>1.008120006993864</v>
@@ -738,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9944787308125864</v>
+        <v>0.9991217493748569</v>
       </c>
       <c r="D5">
         <v>0.6192801061974191</v>
       </c>
       <c r="E5">
-        <v>0.9991217493748569</v>
+        <v>0.6192801061974191</v>
       </c>
       <c r="F5">
         <v>0.9944787308125864</v>
       </c>
       <c r="G5">
-        <v>0.6951985739839684</v>
+        <v>0.9944787308125864</v>
       </c>
       <c r="H5">
         <v>0.9251059867396035</v>
       </c>
       <c r="I5">
+        <v>0.6951985739839682</v>
+      </c>
+      <c r="J5">
         <v>0.8731307857573206</v>
-      </c>
-      <c r="J5">
-        <v>0.6192801061974191</v>
       </c>
       <c r="K5">
         <v>0.9944787308125864</v>
@@ -800,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.411539595919041</v>
+        <v>0.8195806161569131</v>
       </c>
       <c r="D6">
         <v>1.789611489588995</v>
       </c>
       <c r="E6">
-        <v>0.8195806161569131</v>
+        <v>1.789611489588995</v>
       </c>
       <c r="F6">
         <v>1.411539595919041</v>
       </c>
       <c r="G6">
-        <v>0.9337978568030243</v>
+        <v>1.411539595919041</v>
       </c>
       <c r="H6">
         <v>0.4225844915764418</v>
       </c>
       <c r="I6">
+        <v>0.9337978568030243</v>
+      </c>
+      <c r="J6">
         <v>0.8594090520211481</v>
-      </c>
-      <c r="J6">
-        <v>1.789611489588995</v>
       </c>
       <c r="K6">
         <v>1.411539595919041</v>
@@ -862,55 +874,55 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.003667642808364</v>
+        <v>1.002116304104381</v>
       </c>
       <c r="D7">
-        <v>0.9992340446463284</v>
+        <v>0.9992340446463303</v>
       </c>
       <c r="E7">
-        <v>1.00211630410438</v>
+        <v>0.9992340446463303</v>
       </c>
       <c r="F7">
-        <v>1.003667642808364</v>
+        <v>1.003667642808365</v>
       </c>
       <c r="G7">
+        <v>1.003667642808365</v>
+      </c>
+      <c r="H7">
+        <v>0.9979958538094204</v>
+      </c>
+      <c r="I7">
         <v>1.001241138171986</v>
       </c>
-      <c r="H7">
-        <v>0.99799585380942</v>
-      </c>
-      <c r="I7">
-        <v>0.9988069448159286</v>
-      </c>
       <c r="J7">
-        <v>0.9992340446463284</v>
+        <v>0.9988069448159292</v>
       </c>
       <c r="K7">
-        <v>1.003667642808364</v>
+        <v>1.003667642808365</v>
       </c>
       <c r="L7">
-        <v>1.00211630410438</v>
+        <v>1.002116304104381</v>
       </c>
       <c r="M7">
-        <v>1.000675174375354</v>
+        <v>1.000675174375356</v>
       </c>
       <c r="N7">
-        <v>1.000675174375354</v>
+        <v>1.000675174375356</v>
       </c>
       <c r="O7">
-        <v>0.9997820675200429</v>
+        <v>0.9997820675200439</v>
       </c>
       <c r="P7">
-        <v>1.001672663853024</v>
+        <v>1.001672663853025</v>
       </c>
       <c r="Q7">
-        <v>1.001672663853024</v>
+        <v>1.001672663853025</v>
       </c>
       <c r="R7">
-        <v>1.002171408591859</v>
+        <v>1.00217140859186</v>
       </c>
       <c r="S7">
-        <v>1.002171408591859</v>
+        <v>1.00217140859186</v>
       </c>
       <c r="T7">
         <v>1.000510321392735</v>
@@ -924,49 +936,49 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.015217704962765</v>
+        <v>1.002507699741749</v>
       </c>
       <c r="D8">
-        <v>0.9924400756700534</v>
+        <v>0.9924400756700537</v>
       </c>
       <c r="E8">
-        <v>1.002507699741748</v>
+        <v>0.9924400756700537</v>
       </c>
       <c r="F8">
         <v>1.015217704962765</v>
       </c>
       <c r="G8">
-        <v>0.9994254430496214</v>
+        <v>1.015217704962765</v>
       </c>
       <c r="H8">
-        <v>0.9952985499878194</v>
+        <v>0.9952985499878191</v>
       </c>
       <c r="I8">
-        <v>0.9991375993798132</v>
+        <v>0.9994254430496223</v>
       </c>
       <c r="J8">
-        <v>0.9924400756700534</v>
+        <v>0.9991375993798122</v>
       </c>
       <c r="K8">
         <v>1.015217704962765</v>
       </c>
       <c r="L8">
-        <v>1.002507699741748</v>
+        <v>1.002507699741749</v>
       </c>
       <c r="M8">
-        <v>0.9974738877059006</v>
+        <v>0.9974738877059015</v>
       </c>
       <c r="N8">
-        <v>0.9974738877059006</v>
+        <v>0.9974738877059015</v>
       </c>
       <c r="O8">
-        <v>0.9967487751332068</v>
+        <v>0.9967487751332073</v>
       </c>
       <c r="P8">
-        <v>1.003388493458188</v>
+        <v>1.003388493458189</v>
       </c>
       <c r="Q8">
-        <v>1.003388493458188</v>
+        <v>1.003388493458189</v>
       </c>
       <c r="R8">
         <v>1.006345796334333</v>
@@ -986,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.062552636249771</v>
+        <v>1.017033413325553</v>
       </c>
       <c r="D9">
-        <v>0.9930889611819138</v>
+        <v>0.9930889611819136</v>
       </c>
       <c r="E9">
-        <v>1.017033413325553</v>
+        <v>0.9930889611819136</v>
       </c>
       <c r="F9">
         <v>1.062552636249771</v>
       </c>
       <c r="G9">
+        <v>1.062552636249771</v>
+      </c>
+      <c r="H9">
+        <v>0.9930936692391228</v>
+      </c>
+      <c r="I9">
         <v>1.013065535706044</v>
       </c>
-      <c r="H9">
-        <v>0.9930936692391226</v>
-      </c>
-      <c r="I9">
-        <v>0.9918019649946316</v>
-      </c>
       <c r="J9">
-        <v>0.9930889611819138</v>
+        <v>0.9918019649946318</v>
       </c>
       <c r="K9">
         <v>1.062552636249771</v>
@@ -1048,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.074543995282749</v>
+        <v>1.009463378917367</v>
       </c>
       <c r="D10">
         <v>0.9827206559784334</v>
       </c>
       <c r="E10">
-        <v>1.009463378917367</v>
+        <v>0.9827206559784334</v>
       </c>
       <c r="F10">
         <v>1.074543995282749</v>
       </c>
       <c r="G10">
-        <v>1.013911826369526</v>
+        <v>1.074543995282749</v>
       </c>
       <c r="H10">
         <v>0.9826155931610463</v>
       </c>
       <c r="I10">
+        <v>1.013911826369526</v>
+      </c>
+      <c r="J10">
         <v>0.9970198950437998</v>
-      </c>
-      <c r="J10">
-        <v>0.9827206559784334</v>
       </c>
       <c r="K10">
         <v>1.074543995282749</v>
@@ -1110,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.299474744863165</v>
+        <v>1.029046733070148</v>
       </c>
       <c r="D11">
         <v>1.073930944309927</v>
       </c>
       <c r="E11">
-        <v>1.029046733070148</v>
+        <v>1.073930944309927</v>
       </c>
       <c r="F11">
         <v>1.299474744863165</v>
       </c>
       <c r="G11">
-        <v>0.9701192604429481</v>
+        <v>1.299474744863165</v>
       </c>
       <c r="H11">
         <v>1.0620795190162</v>
       </c>
       <c r="I11">
-        <v>0.9443532156956592</v>
+        <v>0.9701192604429481</v>
       </c>
       <c r="J11">
-        <v>1.073930944309927</v>
+        <v>0.944353215695659</v>
       </c>
       <c r="K11">
         <v>1.299474744863165</v>
@@ -1172,58 +1184,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.844244450859468</v>
+        <v>1.200527794721968</v>
       </c>
       <c r="D12">
-        <v>0.02839472598084424</v>
+        <v>0.02839472598084422</v>
       </c>
       <c r="E12">
-        <v>1.200527794721967</v>
+        <v>0.02839472598084422</v>
       </c>
       <c r="F12">
-        <v>0.844244450859468</v>
+        <v>0.8442444508594681</v>
       </c>
       <c r="G12">
-        <v>0.007220350187736585</v>
+        <v>0.8442444508594681</v>
       </c>
       <c r="H12">
         <v>1.667427177532818</v>
       </c>
       <c r="I12">
-        <v>1.469872051485181</v>
+        <v>0.007220350187736538</v>
       </c>
       <c r="J12">
-        <v>0.02839472598084424</v>
+        <v>1.46987205148518</v>
       </c>
       <c r="K12">
-        <v>0.844244450859468</v>
+        <v>0.8442444508594681</v>
       </c>
       <c r="L12">
-        <v>1.200527794721967</v>
+        <v>1.200527794721968</v>
       </c>
       <c r="M12">
-        <v>0.6144612603514055</v>
+        <v>0.6144612603514059</v>
       </c>
       <c r="N12">
-        <v>0.6144612603514055</v>
+        <v>0.6144612603514059</v>
       </c>
       <c r="O12">
-        <v>0.9654498994118761</v>
+        <v>0.9654498994118766</v>
       </c>
       <c r="P12">
-        <v>0.6910556571874263</v>
+        <v>0.6910556571874267</v>
       </c>
       <c r="Q12">
-        <v>0.6910556571874263</v>
+        <v>0.6910556571874267</v>
       </c>
       <c r="R12">
-        <v>0.7293528556054367</v>
+        <v>0.7293528556054371</v>
       </c>
       <c r="S12">
-        <v>0.7293528556054367</v>
+        <v>0.7293528556054371</v>
       </c>
       <c r="T12">
-        <v>0.8696144251280024</v>
+        <v>0.8696144251280025</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.098291033998245</v>
+        <v>0.4933474806868863</v>
       </c>
       <c r="D13">
-        <v>3.312680609107419</v>
+        <v>3.312680609107422</v>
       </c>
       <c r="E13">
-        <v>0.4933474806868863</v>
+        <v>3.312680609107422</v>
       </c>
       <c r="F13">
         <v>1.098291033998245</v>
       </c>
       <c r="G13">
-        <v>1.629499496735311</v>
+        <v>1.098291033998245</v>
       </c>
       <c r="H13">
-        <v>0.6057433515298012</v>
+        <v>0.6057433515298005</v>
       </c>
       <c r="I13">
-        <v>0.6647097133222071</v>
+        <v>1.629499496735312</v>
       </c>
       <c r="J13">
-        <v>3.312680609107419</v>
+        <v>0.6647097133222074</v>
       </c>
       <c r="K13">
         <v>1.098291033998245</v>
@@ -1264,16 +1276,16 @@
         <v>0.4933474806868863</v>
       </c>
       <c r="M13">
-        <v>1.903014044897153</v>
+        <v>1.903014044897154</v>
       </c>
       <c r="N13">
-        <v>1.903014044897153</v>
+        <v>1.903014044897154</v>
       </c>
       <c r="O13">
-        <v>1.470590480441369</v>
+        <v>1.47059048044137</v>
       </c>
       <c r="P13">
-        <v>1.634773041264183</v>
+        <v>1.634773041264184</v>
       </c>
       <c r="Q13">
         <v>1.634773041264184</v>
@@ -1296,49 +1308,49 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.919705994951049</v>
+        <v>0.1746352361111097</v>
       </c>
       <c r="D14">
-        <v>3.419782102209528</v>
+        <v>3.41978210220953</v>
       </c>
       <c r="E14">
-        <v>0.1746352361111098</v>
+        <v>3.41978210220953</v>
       </c>
       <c r="F14">
         <v>1.919705994951049</v>
       </c>
       <c r="G14">
-        <v>0.1456247915945232</v>
+        <v>1.919705994951049</v>
       </c>
       <c r="H14">
         <v>1.834740474472013</v>
       </c>
       <c r="I14">
+        <v>0.1456247915945228</v>
+      </c>
+      <c r="J14">
         <v>1.059089774778224</v>
-      </c>
-      <c r="J14">
-        <v>3.419782102209528</v>
       </c>
       <c r="K14">
         <v>1.919705994951049</v>
       </c>
       <c r="L14">
-        <v>0.1746352361111098</v>
+        <v>0.1746352361111097</v>
       </c>
       <c r="M14">
-        <v>1.797208669160319</v>
+        <v>1.79720866916032</v>
       </c>
       <c r="N14">
-        <v>1.797208669160319</v>
+        <v>1.79720866916032</v>
       </c>
       <c r="O14">
         <v>1.809719270930884</v>
       </c>
       <c r="P14">
-        <v>1.838041111090562</v>
+        <v>1.838041111090563</v>
       </c>
       <c r="Q14">
-        <v>1.838041111090562</v>
+        <v>1.838041111090563</v>
       </c>
       <c r="R14">
         <v>1.858457332055684</v>
@@ -1358,58 +1370,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.02078027073299304</v>
+        <v>1.232545222439271</v>
       </c>
       <c r="D15">
         <v>0.002627809240744217</v>
       </c>
       <c r="E15">
-        <v>1.232545222439272</v>
+        <v>0.002627809240744217</v>
       </c>
       <c r="F15">
         <v>0.02078027073299304</v>
       </c>
       <c r="G15">
-        <v>1.369476199899433</v>
+        <v>0.02078027073299304</v>
       </c>
       <c r="H15">
-        <v>1.688032319148561</v>
+        <v>1.68803231914856</v>
       </c>
       <c r="I15">
-        <v>0.9313387374426677</v>
+        <v>1.369476199899434</v>
       </c>
       <c r="J15">
-        <v>0.002627809240744217</v>
+        <v>0.9313387374426676</v>
       </c>
       <c r="K15">
         <v>0.02078027073299304</v>
       </c>
       <c r="L15">
-        <v>1.232545222439272</v>
+        <v>1.232545222439271</v>
       </c>
       <c r="M15">
-        <v>0.6175865158400079</v>
+        <v>0.6175865158400077</v>
       </c>
       <c r="N15">
-        <v>0.6175865158400079</v>
+        <v>0.6175865158400077</v>
       </c>
       <c r="O15">
-        <v>0.9744017836095255</v>
+        <v>0.9744017836095252</v>
       </c>
       <c r="P15">
-        <v>0.4186511008043363</v>
+        <v>0.4186511008043361</v>
       </c>
       <c r="Q15">
-        <v>0.4186511008043363</v>
+        <v>0.4186511008043362</v>
       </c>
       <c r="R15">
-        <v>0.3191833932865005</v>
+        <v>0.3191833932865004</v>
       </c>
       <c r="S15">
-        <v>0.3191833932865005</v>
+        <v>0.3191833932865004</v>
       </c>
       <c r="T15">
-        <v>0.8741334264839452</v>
+        <v>0.874133426483945</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.988924794265897</v>
+        <v>0.8723190885958978</v>
       </c>
       <c r="D16">
-        <v>1.001408900416045</v>
+        <v>0.1982716240525943</v>
       </c>
       <c r="E16">
-        <v>1.008975085568029</v>
+        <v>0.1982716240525943</v>
       </c>
       <c r="F16">
-        <v>0.988924794265897</v>
+        <v>1.755008585942779</v>
       </c>
       <c r="G16">
-        <v>1.005531437017994</v>
+        <v>1.755008585942779</v>
       </c>
       <c r="H16">
-        <v>1.001140825011324</v>
+        <v>0.2163825151528899</v>
       </c>
       <c r="I16">
-        <v>0.9983746269812632</v>
+        <v>0.6855133870063155</v>
       </c>
       <c r="J16">
-        <v>1.001408900416045</v>
+        <v>1.022125262570573</v>
       </c>
       <c r="K16">
-        <v>0.988924794265897</v>
+        <v>1.755008585942779</v>
       </c>
       <c r="L16">
-        <v>1.008975085568029</v>
+        <v>0.8723190885958978</v>
       </c>
       <c r="M16">
-        <v>1.005191992992037</v>
+        <v>0.5352953563242461</v>
       </c>
       <c r="N16">
-        <v>1.005191992992037</v>
+        <v>0.5352953563242461</v>
       </c>
       <c r="O16">
-        <v>1.003841603665133</v>
+        <v>0.428991075933794</v>
       </c>
       <c r="P16">
-        <v>0.9997695934166573</v>
+        <v>0.9418664328637569</v>
       </c>
       <c r="Q16">
-        <v>0.9997695934166572</v>
+        <v>0.9418664328637569</v>
       </c>
       <c r="R16">
-        <v>0.9970583936289671</v>
+        <v>1.145151971133512</v>
       </c>
       <c r="S16">
-        <v>0.9970583936289671</v>
+        <v>1.145151971133512</v>
       </c>
       <c r="T16">
-        <v>1.000725944876759</v>
+        <v>0.7916034105535082</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.022235747652222</v>
+        <v>0.9850677104148882</v>
       </c>
       <c r="D17">
-        <v>1.000319665283988</v>
+        <v>0.3963049241687018</v>
       </c>
       <c r="E17">
-        <v>0.9924101642594778</v>
+        <v>0.3963049241687018</v>
       </c>
       <c r="F17">
-        <v>1.022235747652222</v>
+        <v>1.475237453348569</v>
       </c>
       <c r="G17">
-        <v>0.9991074780891023</v>
+        <v>1.475237453348569</v>
       </c>
       <c r="H17">
-        <v>0.9981719549974207</v>
+        <v>0.4187003194036331</v>
       </c>
       <c r="I17">
-        <v>1.000587706943872</v>
+        <v>0.9226522745937056</v>
       </c>
       <c r="J17">
-        <v>1.000319665283988</v>
+        <v>1.016035199587499</v>
       </c>
       <c r="K17">
-        <v>1.022235747652222</v>
+        <v>1.475237453348569</v>
       </c>
       <c r="L17">
-        <v>0.9924101642594778</v>
+        <v>0.9850677104148882</v>
       </c>
       <c r="M17">
-        <v>0.9963649147717329</v>
+        <v>0.690686317291795</v>
       </c>
       <c r="N17">
-        <v>0.9963649147717329</v>
+        <v>0.690686317291795</v>
       </c>
       <c r="O17">
-        <v>0.9969672615136288</v>
+        <v>0.6000243179957411</v>
       </c>
       <c r="P17">
-        <v>1.004988525731896</v>
+        <v>0.952203362644053</v>
       </c>
       <c r="Q17">
-        <v>1.004988525731896</v>
+        <v>0.952203362644053</v>
       </c>
       <c r="R17">
-        <v>1.009300331211977</v>
+        <v>1.082961885320182</v>
       </c>
       <c r="S17">
-        <v>1.009300331211977</v>
+        <v>1.082961885320182</v>
       </c>
       <c r="T17">
-        <v>1.002138786204347</v>
+        <v>0.8689996469194995</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.111972894212944</v>
+        <v>1.212901290104071</v>
       </c>
       <c r="D18">
-        <v>0.9909691756832409</v>
+        <v>0.7845849941778587</v>
       </c>
       <c r="E18">
-        <v>1.008637648358219</v>
+        <v>0.7845849941778587</v>
       </c>
       <c r="F18">
-        <v>1.111972894212944</v>
+        <v>0.9530112008586459</v>
       </c>
       <c r="G18">
-        <v>1.018284271939524</v>
+        <v>0.9530112008586459</v>
       </c>
       <c r="H18">
-        <v>0.9914177580555782</v>
+        <v>0.8212349010279795</v>
       </c>
       <c r="I18">
-        <v>1.004392640781793</v>
+        <v>1.395436807946298</v>
       </c>
       <c r="J18">
-        <v>0.9909691756832409</v>
+        <v>1.012784851273102</v>
       </c>
       <c r="K18">
-        <v>1.111972894212944</v>
+        <v>0.9530112008586459</v>
       </c>
       <c r="L18">
-        <v>1.008637648358219</v>
+        <v>1.212901290104071</v>
       </c>
       <c r="M18">
-        <v>0.99980341202073</v>
+        <v>0.9987431421409646</v>
       </c>
       <c r="N18">
-        <v>0.99980341202073</v>
+        <v>0.9987431421409646</v>
       </c>
       <c r="O18">
-        <v>0.997008194032346</v>
+        <v>0.9395737284366362</v>
       </c>
       <c r="P18">
-        <v>1.037193239418135</v>
+        <v>0.983499161713525</v>
       </c>
       <c r="Q18">
-        <v>1.037193239418135</v>
+        <v>0.983499161713525</v>
       </c>
       <c r="R18">
-        <v>1.055888153116837</v>
+        <v>0.9758771714998052</v>
       </c>
       <c r="S18">
-        <v>1.055888153116837</v>
+        <v>0.9758771714998052</v>
       </c>
       <c r="T18">
-        <v>1.020945731505217</v>
+        <v>1.029992340897992</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.346443177847401</v>
+      </c>
+      <c r="D19">
+        <v>0.7590534233716273</v>
+      </c>
+      <c r="E19">
+        <v>0.7590534233716273</v>
+      </c>
+      <c r="F19">
+        <v>0.8592724195351429</v>
+      </c>
+      <c r="G19">
+        <v>0.8592724195351429</v>
+      </c>
+      <c r="H19">
+        <v>0.8390952770782442</v>
+      </c>
+      <c r="I19">
+        <v>1.400832096336024</v>
+      </c>
+      <c r="J19">
+        <v>0.9456020791841662</v>
+      </c>
+      <c r="K19">
+        <v>0.8592724195351429</v>
+      </c>
+      <c r="L19">
+        <v>1.346443177847401</v>
+      </c>
+      <c r="M19">
+        <v>1.052748300609514</v>
+      </c>
+      <c r="N19">
+        <v>1.052748300609514</v>
+      </c>
+      <c r="O19">
+        <v>0.9815306260990909</v>
+      </c>
+      <c r="P19">
+        <v>0.9882563402513904</v>
+      </c>
+      <c r="Q19">
+        <v>0.9882563402513904</v>
+      </c>
+      <c r="R19">
+        <v>0.9560103600723285</v>
+      </c>
+      <c r="S19">
+        <v>0.9560103600723285</v>
+      </c>
+      <c r="T19">
+        <v>1.025049745558768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.008975085568029</v>
+      </c>
+      <c r="D20">
+        <v>1.001408900416044</v>
+      </c>
+      <c r="E20">
+        <v>1.001408900416044</v>
+      </c>
+      <c r="F20">
+        <v>0.9889247942658974</v>
+      </c>
+      <c r="G20">
+        <v>0.9889247942658974</v>
+      </c>
+      <c r="H20">
+        <v>1.001140825011323</v>
+      </c>
+      <c r="I20">
+        <v>1.005531437017992</v>
+      </c>
+      <c r="J20">
+        <v>0.9983746269812633</v>
+      </c>
+      <c r="K20">
+        <v>0.9889247942658974</v>
+      </c>
+      <c r="L20">
+        <v>1.008975085568029</v>
+      </c>
+      <c r="M20">
+        <v>1.005191992992037</v>
+      </c>
+      <c r="N20">
+        <v>1.005191992992037</v>
+      </c>
+      <c r="O20">
+        <v>1.003841603665132</v>
+      </c>
+      <c r="P20">
+        <v>0.9997695934166568</v>
+      </c>
+      <c r="Q20">
+        <v>0.9997695934166568</v>
+      </c>
+      <c r="R20">
+        <v>0.997058393628967</v>
+      </c>
+      <c r="S20">
+        <v>0.997058393628967</v>
+      </c>
+      <c r="T20">
+        <v>1.000725944876758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9924101642594766</v>
+      </c>
+      <c r="D21">
+        <v>1.000319665283988</v>
+      </c>
+      <c r="E21">
+        <v>1.000319665283988</v>
+      </c>
+      <c r="F21">
+        <v>1.022235747652223</v>
+      </c>
+      <c r="G21">
+        <v>1.022235747652223</v>
+      </c>
+      <c r="H21">
+        <v>0.9981719549974212</v>
+      </c>
+      <c r="I21">
+        <v>0.9991074780891017</v>
+      </c>
+      <c r="J21">
+        <v>1.000587706943871</v>
+      </c>
+      <c r="K21">
+        <v>1.022235747652223</v>
+      </c>
+      <c r="L21">
+        <v>0.9924101642594766</v>
+      </c>
+      <c r="M21">
+        <v>0.9963649147717324</v>
+      </c>
+      <c r="N21">
+        <v>0.9963649147717324</v>
+      </c>
+      <c r="O21">
+        <v>0.9969672615136287</v>
+      </c>
+      <c r="P21">
+        <v>1.004988525731896</v>
+      </c>
+      <c r="Q21">
+        <v>1.004988525731896</v>
+      </c>
+      <c r="R21">
+        <v>1.009300331211977</v>
+      </c>
+      <c r="S21">
+        <v>1.009300331211977</v>
+      </c>
+      <c r="T21">
+        <v>1.002138786204347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.008637648358219</v>
+      </c>
+      <c r="D22">
+        <v>0.9909691756832414</v>
+      </c>
+      <c r="E22">
+        <v>0.9909691756832414</v>
+      </c>
+      <c r="F22">
+        <v>1.111972894212945</v>
+      </c>
+      <c r="G22">
+        <v>1.111972894212945</v>
+      </c>
+      <c r="H22">
+        <v>0.9914177580555773</v>
+      </c>
+      <c r="I22">
+        <v>1.018284271939523</v>
+      </c>
+      <c r="J22">
+        <v>1.004392640781794</v>
+      </c>
+      <c r="K22">
+        <v>1.111972894212945</v>
+      </c>
+      <c r="L22">
+        <v>1.008637648358219</v>
+      </c>
+      <c r="M22">
+        <v>0.9998034120207302</v>
+      </c>
+      <c r="N22">
+        <v>0.9998034120207302</v>
+      </c>
+      <c r="O22">
+        <v>0.9970081940323459</v>
+      </c>
+      <c r="P22">
+        <v>1.037193239418135</v>
+      </c>
+      <c r="Q22">
+        <v>1.037193239418135</v>
+      </c>
+      <c r="R22">
+        <v>1.055888153116837</v>
+      </c>
+      <c r="S22">
+        <v>1.055888153116837</v>
+      </c>
+      <c r="T22">
+        <v>1.020945731505217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.157169476054419</v>
+      </c>
+      <c r="D23">
+        <v>0.6669968676775767</v>
+      </c>
+      <c r="E23">
+        <v>0.6669968676775767</v>
+      </c>
+      <c r="F23">
         <v>0.9605819309588933</v>
       </c>
-      <c r="D19">
-        <v>0.6669968676775767</v>
-      </c>
-      <c r="E19">
+      <c r="G23">
+        <v>0.9605819309588933</v>
+      </c>
+      <c r="H23">
+        <v>1.074046226701863</v>
+      </c>
+      <c r="I23">
+        <v>0.9750234546700978</v>
+      </c>
+      <c r="J23">
+        <v>0.9302875081231422</v>
+      </c>
+      <c r="K23">
+        <v>0.9605819309588933</v>
+      </c>
+      <c r="L23">
         <v>1.157169476054419</v>
       </c>
-      <c r="F19">
-        <v>0.9605819309588933</v>
-      </c>
-      <c r="G19">
-        <v>0.9750234546700978</v>
-      </c>
-      <c r="H19">
-        <v>1.074046226701863</v>
-      </c>
-      <c r="I19">
-        <v>0.9302875081231422</v>
-      </c>
-      <c r="J19">
-        <v>0.6669968676775767</v>
-      </c>
-      <c r="K19">
-        <v>0.9605819309588933</v>
-      </c>
-      <c r="L19">
-        <v>1.157169476054419</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9120831718659979</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9120831718659979</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9660708568112861</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.928249424896963</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.928249424896963</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9363325514124456</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9363325514124456</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9606842440309987</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW05.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.989639002269308</v>
+        <v>1.233938386829547</v>
       </c>
       <c r="D3">
-        <v>0.9824975127660879</v>
+        <v>0.7454211916701649</v>
       </c>
       <c r="E3">
-        <v>0.9824975127660879</v>
+        <v>0.7454211916701649</v>
       </c>
       <c r="F3">
-        <v>1.050541219657053</v>
+        <v>0.9266323852656143</v>
       </c>
       <c r="G3">
-        <v>1.050541219657053</v>
+        <v>0.9266323852656143</v>
       </c>
       <c r="H3">
-        <v>0.9555350363648139</v>
+        <v>0.774884723330028</v>
       </c>
       <c r="I3">
-        <v>0.9816293827479792</v>
+        <v>1.355001710690947</v>
       </c>
       <c r="J3">
-        <v>1.002537094226045</v>
+        <v>0.9874851007878516</v>
       </c>
       <c r="K3">
-        <v>1.050541219657053</v>
+        <v>0.9266323852656143</v>
       </c>
       <c r="L3">
-        <v>0.989639002269308</v>
+        <v>1.233938386829547</v>
       </c>
       <c r="M3">
-        <v>0.986068257517698</v>
+        <v>0.9896797892498561</v>
       </c>
       <c r="N3">
-        <v>0.986068257517698</v>
+        <v>0.9896797892498561</v>
       </c>
       <c r="O3">
-        <v>0.9758905171334034</v>
+        <v>0.9180814339432467</v>
       </c>
       <c r="P3">
-        <v>1.007559244897483</v>
+        <v>0.9686639879217754</v>
       </c>
       <c r="Q3">
-        <v>1.007559244897483</v>
+        <v>0.9686639879217754</v>
       </c>
       <c r="R3">
-        <v>1.018304738587376</v>
+        <v>0.9581560872577352</v>
       </c>
       <c r="S3">
-        <v>1.018304738587376</v>
+        <v>0.9581560872577352</v>
       </c>
       <c r="T3">
-        <v>0.9937298746718811</v>
+        <v>1.003893916429025</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9540881241053801</v>
+        <v>1.221906756597943</v>
       </c>
       <c r="D4">
-        <v>0.8833470588205872</v>
+        <v>0.7712338309108765</v>
       </c>
       <c r="E4">
-        <v>0.8833470588205872</v>
+        <v>0.7712338309108765</v>
       </c>
       <c r="F4">
-        <v>1.097522422524745</v>
+        <v>0.9044899791924007</v>
       </c>
       <c r="G4">
-        <v>1.097522422524745</v>
+        <v>0.9044899791924007</v>
       </c>
       <c r="H4">
-        <v>0.9090543681114364</v>
+        <v>0.8015133102964894</v>
       </c>
       <c r="I4">
-        <v>0.9505537298916452</v>
+        <v>1.377953880871304</v>
       </c>
       <c r="J4">
-        <v>0.9847854886103488</v>
+        <v>0.997441816486262</v>
       </c>
       <c r="K4">
-        <v>1.097522422524745</v>
+        <v>0.9044899791924007</v>
       </c>
       <c r="L4">
-        <v>0.9540881241053801</v>
+        <v>1.221906756597943</v>
       </c>
       <c r="M4">
-        <v>0.9187175914629837</v>
+        <v>0.9965702937544096</v>
       </c>
       <c r="N4">
-        <v>0.9187175914629837</v>
+        <v>0.9965702937544096</v>
       </c>
       <c r="O4">
-        <v>0.9154965170124679</v>
+        <v>0.9315512992684362</v>
       </c>
       <c r="P4">
-        <v>0.978319201816904</v>
+        <v>0.9658768555670734</v>
       </c>
       <c r="Q4">
-        <v>0.978319201816904</v>
+        <v>0.9658768555670733</v>
       </c>
       <c r="R4">
-        <v>1.008120006993864</v>
+        <v>0.9505301364734051</v>
       </c>
       <c r="S4">
-        <v>1.008120006993864</v>
+        <v>0.9505301364734051</v>
       </c>
       <c r="T4">
-        <v>0.9632251986773571</v>
+        <v>1.012423262392546</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9991217493748569</v>
+        <v>1.25602700204426</v>
       </c>
       <c r="D5">
-        <v>0.6192801061974191</v>
+        <v>0.7056804402850143</v>
       </c>
       <c r="E5">
-        <v>0.6192801061974191</v>
+        <v>0.7056804402850143</v>
       </c>
       <c r="F5">
-        <v>0.9944787308125864</v>
+        <v>1.034159366691871</v>
       </c>
       <c r="G5">
-        <v>0.9944787308125864</v>
+        <v>1.034159366691871</v>
       </c>
       <c r="H5">
-        <v>0.9251059867396035</v>
+        <v>0.7206452519172508</v>
       </c>
       <c r="I5">
-        <v>0.6951985739839682</v>
+        <v>1.329975723367118</v>
       </c>
       <c r="J5">
-        <v>0.8731307857573206</v>
+        <v>0.9704836603191374</v>
       </c>
       <c r="K5">
-        <v>0.9944787308125864</v>
+        <v>1.034159366691871</v>
       </c>
       <c r="L5">
-        <v>0.9991217493748569</v>
+        <v>1.25602700204426</v>
       </c>
       <c r="M5">
-        <v>0.8092009277861381</v>
+        <v>0.9808537211646373</v>
       </c>
       <c r="N5">
-        <v>0.8092009277861381</v>
+        <v>0.9808537211646373</v>
       </c>
       <c r="O5">
-        <v>0.8478359474372933</v>
+        <v>0.8941175647488419</v>
       </c>
       <c r="P5">
-        <v>0.8709601954616208</v>
+        <v>0.9986222696737151</v>
       </c>
       <c r="Q5">
-        <v>0.8709601954616208</v>
+        <v>0.9986222696737151</v>
       </c>
       <c r="R5">
-        <v>0.9018398292993622</v>
+        <v>1.007506543928254</v>
       </c>
       <c r="S5">
-        <v>0.9018398292993622</v>
+        <v>1.007506543928254</v>
       </c>
       <c r="T5">
-        <v>0.8510526554776258</v>
+        <v>1.002828574104109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8195806161569131</v>
+        <v>1.281247314093684</v>
       </c>
       <c r="D6">
-        <v>1.789611489588995</v>
+        <v>0.7938857799570453</v>
       </c>
       <c r="E6">
-        <v>1.789611489588995</v>
+        <v>0.7938857799570453</v>
       </c>
       <c r="F6">
-        <v>1.411539595919041</v>
+        <v>1.42880316579608</v>
       </c>
       <c r="G6">
-        <v>1.411539595919041</v>
+        <v>1.42880316579608</v>
       </c>
       <c r="H6">
-        <v>0.4225844915764418</v>
+        <v>0.8069737452659657</v>
       </c>
       <c r="I6">
-        <v>0.9337978568030243</v>
+        <v>1.128467253868409</v>
       </c>
       <c r="J6">
-        <v>0.8594090520211481</v>
+        <v>0.9405623361928414</v>
       </c>
       <c r="K6">
-        <v>1.411539595919041</v>
+        <v>1.42880316579608</v>
       </c>
       <c r="L6">
-        <v>0.8195806161569131</v>
+        <v>1.281247314093684</v>
       </c>
       <c r="M6">
-        <v>1.304596052872954</v>
+        <v>1.037566547025365</v>
       </c>
       <c r="N6">
-        <v>1.304596052872954</v>
+        <v>1.037566547025365</v>
       </c>
       <c r="O6">
-        <v>1.01059219910745</v>
+        <v>0.9607022797722315</v>
       </c>
       <c r="P6">
-        <v>1.340243900554983</v>
+        <v>1.16797875328227</v>
       </c>
       <c r="Q6">
-        <v>1.340243900554983</v>
+        <v>1.16797875328227</v>
       </c>
       <c r="R6">
-        <v>1.358067824395998</v>
+        <v>1.233184856410722</v>
       </c>
       <c r="S6">
-        <v>1.358067824395998</v>
+        <v>1.233184856410722</v>
       </c>
       <c r="T6">
-        <v>1.039420517010927</v>
+        <v>1.063323265862337</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.002116304104381</v>
+        <v>1.265663390812898</v>
       </c>
       <c r="D7">
-        <v>0.9992340446463303</v>
+        <v>0.0008840720951255887</v>
       </c>
       <c r="E7">
-        <v>0.9992340446463303</v>
+        <v>0.0008840720951255887</v>
       </c>
       <c r="F7">
-        <v>1.003667642808365</v>
+        <v>2.955777728577645</v>
       </c>
       <c r="G7">
-        <v>1.003667642808365</v>
+        <v>2.955777728577645</v>
       </c>
       <c r="H7">
-        <v>0.9979958538094204</v>
+        <v>0.002191407211767105</v>
       </c>
       <c r="I7">
-        <v>1.001241138171986</v>
+        <v>0.02686276324545608</v>
       </c>
       <c r="J7">
-        <v>0.9988069448159292</v>
+        <v>1.417390562804874</v>
       </c>
       <c r="K7">
-        <v>1.003667642808365</v>
+        <v>2.955777728577645</v>
       </c>
       <c r="L7">
-        <v>1.002116304104381</v>
+        <v>1.265663390812898</v>
       </c>
       <c r="M7">
-        <v>1.000675174375356</v>
+        <v>0.6332737314540117</v>
       </c>
       <c r="N7">
-        <v>1.000675174375356</v>
+        <v>0.6332737314540117</v>
       </c>
       <c r="O7">
-        <v>0.9997820675200439</v>
+        <v>0.4229129567065968</v>
       </c>
       <c r="P7">
-        <v>1.001672663853025</v>
+        <v>1.407441730495223</v>
       </c>
       <c r="Q7">
-        <v>1.001672663853025</v>
+        <v>1.407441730495223</v>
       </c>
       <c r="R7">
-        <v>1.00217140859186</v>
+        <v>1.794525730015828</v>
       </c>
       <c r="S7">
-        <v>1.00217140859186</v>
+        <v>1.794525730015828</v>
       </c>
       <c r="T7">
-        <v>1.000510321392735</v>
+        <v>0.9447949874579608</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.002507699741749</v>
+        <v>1.266896308884938</v>
       </c>
       <c r="D8">
-        <v>0.9924400756700537</v>
+        <v>0.0008677191756345288</v>
       </c>
       <c r="E8">
-        <v>0.9924400756700537</v>
+        <v>0.0008677191756345288</v>
       </c>
       <c r="F8">
-        <v>1.015217704962765</v>
+        <v>2.995904087481815</v>
       </c>
       <c r="G8">
-        <v>1.015217704962765</v>
+        <v>2.995904087481815</v>
       </c>
       <c r="H8">
-        <v>0.9952985499878191</v>
+        <v>0.00218331654402714</v>
       </c>
       <c r="I8">
-        <v>0.9994254430496223</v>
+        <v>0.03040335315894161</v>
       </c>
       <c r="J8">
-        <v>0.9991375993798122</v>
+        <v>1.410864304955304</v>
       </c>
       <c r="K8">
-        <v>1.015217704962765</v>
+        <v>2.995904087481815</v>
       </c>
       <c r="L8">
-        <v>1.002507699741749</v>
+        <v>1.266896308884938</v>
       </c>
       <c r="M8">
-        <v>0.9974738877059015</v>
+        <v>0.6338820140302864</v>
       </c>
       <c r="N8">
-        <v>0.9974738877059015</v>
+        <v>0.6338820140302864</v>
       </c>
       <c r="O8">
-        <v>0.9967487751332073</v>
+        <v>0.4233157815348667</v>
       </c>
       <c r="P8">
-        <v>1.003388493458189</v>
+        <v>1.421222705180796</v>
       </c>
       <c r="Q8">
-        <v>1.003388493458189</v>
+        <v>1.421222705180796</v>
       </c>
       <c r="R8">
-        <v>1.006345796334333</v>
+        <v>1.814893050756051</v>
       </c>
       <c r="S8">
-        <v>1.006345796334333</v>
+        <v>1.814893050756051</v>
       </c>
       <c r="T8">
-        <v>1.000671178798637</v>
+        <v>0.9511865150334436</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.017033413325553</v>
+        <v>1.273652252859293</v>
       </c>
       <c r="D9">
-        <v>0.9930889611819136</v>
+        <v>0.0008637739801714365</v>
       </c>
       <c r="E9">
-        <v>0.9930889611819136</v>
+        <v>0.0008637739801714365</v>
       </c>
       <c r="F9">
-        <v>1.062552636249771</v>
+        <v>2.993028788995104</v>
       </c>
       <c r="G9">
-        <v>1.062552636249771</v>
+        <v>2.993028788995104</v>
       </c>
       <c r="H9">
-        <v>0.9930936692391228</v>
+        <v>0.002183243966338035</v>
       </c>
       <c r="I9">
-        <v>1.013065535706044</v>
+        <v>0.03523988139158455</v>
       </c>
       <c r="J9">
-        <v>0.9918019649946318</v>
+        <v>1.4065320527989</v>
       </c>
       <c r="K9">
-        <v>1.062552636249771</v>
+        <v>2.993028788995104</v>
       </c>
       <c r="L9">
-        <v>1.017033413325553</v>
+        <v>1.273652252859293</v>
       </c>
       <c r="M9">
-        <v>1.005061187253733</v>
+        <v>0.6372580134197321</v>
       </c>
       <c r="N9">
-        <v>1.005061187253733</v>
+        <v>0.6372580134197321</v>
       </c>
       <c r="O9">
-        <v>1.001072014582197</v>
+        <v>0.4255664236019341</v>
       </c>
       <c r="P9">
-        <v>1.024225003585746</v>
+        <v>1.422514938611523</v>
       </c>
       <c r="Q9">
-        <v>1.024225003585746</v>
+        <v>1.422514938611523</v>
       </c>
       <c r="R9">
-        <v>1.033806911751752</v>
+        <v>1.815143401207418</v>
       </c>
       <c r="S9">
-        <v>1.033806911751752</v>
+        <v>1.815143401207418</v>
       </c>
       <c r="T9">
-        <v>1.011772696782839</v>
+        <v>0.9519166656652319</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.009463378917367</v>
+        <v>1.276781760552766</v>
       </c>
       <c r="D10">
-        <v>0.9827206559784334</v>
+        <v>0.0008774804431373625</v>
       </c>
       <c r="E10">
-        <v>0.9827206559784334</v>
+        <v>0.0008774804431373625</v>
       </c>
       <c r="F10">
-        <v>1.074543995282749</v>
+        <v>3.226239967596155</v>
       </c>
       <c r="G10">
-        <v>1.074543995282749</v>
+        <v>3.226239967596155</v>
       </c>
       <c r="H10">
-        <v>0.9826155931610463</v>
+        <v>0.002191055070317892</v>
       </c>
       <c r="I10">
-        <v>1.013911826369526</v>
+        <v>0.04419796589880712</v>
       </c>
       <c r="J10">
-        <v>0.9970198950437998</v>
+        <v>1.385687256757426</v>
       </c>
       <c r="K10">
-        <v>1.074543995282749</v>
+        <v>3.226239967596155</v>
       </c>
       <c r="L10">
-        <v>1.009463378917367</v>
+        <v>1.276781760552766</v>
       </c>
       <c r="M10">
-        <v>0.9960920174479</v>
+        <v>0.6388296204979517</v>
       </c>
       <c r="N10">
-        <v>0.9960920174479</v>
+        <v>0.6388296204979517</v>
       </c>
       <c r="O10">
-        <v>0.9915998760189488</v>
+        <v>0.4266167653554071</v>
       </c>
       <c r="P10">
-        <v>1.022242676726183</v>
+        <v>1.501299736197353</v>
       </c>
       <c r="Q10">
-        <v>1.022242676726183</v>
+        <v>1.501299736197353</v>
       </c>
       <c r="R10">
-        <v>1.035318006365324</v>
+        <v>1.932534794047053</v>
       </c>
       <c r="S10">
-        <v>1.035318006365324</v>
+        <v>1.932534794047053</v>
       </c>
       <c r="T10">
-        <v>1.010045890792153</v>
+        <v>0.9893292477197683</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.029046733070148</v>
+        <v>0.9857061755920503</v>
       </c>
       <c r="D11">
-        <v>1.073930944309927</v>
+        <v>0.9615614082344962</v>
       </c>
       <c r="E11">
-        <v>1.073930944309927</v>
+        <v>0.9615614082344962</v>
       </c>
       <c r="F11">
-        <v>1.299474744863165</v>
+        <v>1.044422583537089</v>
       </c>
       <c r="G11">
-        <v>1.299474744863165</v>
+        <v>1.044422583537089</v>
       </c>
       <c r="H11">
-        <v>1.0620795190162</v>
+        <v>0.9560721459737525</v>
       </c>
       <c r="I11">
-        <v>0.9701192604429481</v>
+        <v>0.9707220534349087</v>
       </c>
       <c r="J11">
-        <v>0.944353215695659</v>
+        <v>1.000316256542099</v>
       </c>
       <c r="K11">
-        <v>1.299474744863165</v>
+        <v>1.044422583537089</v>
       </c>
       <c r="L11">
-        <v>1.029046733070148</v>
+        <v>0.9857061755920503</v>
       </c>
       <c r="M11">
-        <v>1.051488838690037</v>
+        <v>0.9736337919132733</v>
       </c>
       <c r="N11">
-        <v>1.051488838690037</v>
+        <v>0.9736337919132733</v>
       </c>
       <c r="O11">
-        <v>1.055019065465425</v>
+        <v>0.9677799099334331</v>
       </c>
       <c r="P11">
-        <v>1.134150807414413</v>
+        <v>0.9972300557878784</v>
       </c>
       <c r="Q11">
-        <v>1.134150807414413</v>
+        <v>0.9972300557878784</v>
       </c>
       <c r="R11">
-        <v>1.175481791776601</v>
+        <v>1.009028187725181</v>
       </c>
       <c r="S11">
-        <v>1.175481791776601</v>
+        <v>1.009028187725181</v>
       </c>
       <c r="T11">
-        <v>1.063167402899674</v>
+        <v>0.9864667705523992</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.200527794721968</v>
+        <v>0.9982927450058935</v>
       </c>
       <c r="D12">
-        <v>0.02839472598084422</v>
+        <v>0.9738014445579822</v>
       </c>
       <c r="E12">
-        <v>0.02839472598084422</v>
+        <v>0.9738014445579822</v>
       </c>
       <c r="F12">
-        <v>0.8442444508594681</v>
+        <v>1.026650007134016</v>
       </c>
       <c r="G12">
-        <v>0.8442444508594681</v>
+        <v>1.026650007134016</v>
       </c>
       <c r="H12">
-        <v>1.667427177532818</v>
+        <v>0.9743018820342726</v>
       </c>
       <c r="I12">
-        <v>0.007220350187736538</v>
+        <v>0.9838887426191802</v>
       </c>
       <c r="J12">
-        <v>1.46987205148518</v>
+        <v>1.002475629357679</v>
       </c>
       <c r="K12">
-        <v>0.8442444508594681</v>
+        <v>1.026650007134016</v>
       </c>
       <c r="L12">
-        <v>1.200527794721968</v>
+        <v>0.9982927450058935</v>
       </c>
       <c r="M12">
-        <v>0.6144612603514059</v>
+        <v>0.9860470947819379</v>
       </c>
       <c r="N12">
-        <v>0.6144612603514059</v>
+        <v>0.9860470947819379</v>
       </c>
       <c r="O12">
-        <v>0.9654498994118766</v>
+        <v>0.9821320238660495</v>
       </c>
       <c r="P12">
-        <v>0.6910556571874267</v>
+        <v>0.9995813988992971</v>
       </c>
       <c r="Q12">
-        <v>0.6910556571874267</v>
+        <v>0.9995813988992972</v>
       </c>
       <c r="R12">
-        <v>0.7293528556054371</v>
+        <v>1.006348550957977</v>
       </c>
       <c r="S12">
-        <v>0.7293528556054371</v>
+        <v>1.006348550957977</v>
       </c>
       <c r="T12">
-        <v>0.8696144251280025</v>
+        <v>0.9932350751181706</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.4933474806868863</v>
+        <v>0.9750894563331399</v>
       </c>
       <c r="D13">
-        <v>3.312680609107422</v>
+        <v>0.9541977759775019</v>
       </c>
       <c r="E13">
-        <v>3.312680609107422</v>
+        <v>0.9541977759775019</v>
       </c>
       <c r="F13">
-        <v>1.098291033998245</v>
+        <v>1.130834814630823</v>
       </c>
       <c r="G13">
-        <v>1.098291033998245</v>
+        <v>1.130834814630823</v>
       </c>
       <c r="H13">
-        <v>0.6057433515298005</v>
+        <v>0.9051414929967077</v>
       </c>
       <c r="I13">
-        <v>1.629499496735312</v>
+        <v>0.8944998321878984</v>
       </c>
       <c r="J13">
-        <v>0.6647097133222074</v>
+        <v>1.016020035895137</v>
       </c>
       <c r="K13">
-        <v>1.098291033998245</v>
+        <v>1.130834814630823</v>
       </c>
       <c r="L13">
-        <v>0.4933474806868863</v>
+        <v>0.9750894563331399</v>
       </c>
       <c r="M13">
-        <v>1.903014044897154</v>
+        <v>0.9646436161553209</v>
       </c>
       <c r="N13">
-        <v>1.903014044897154</v>
+        <v>0.9646436161553209</v>
       </c>
       <c r="O13">
-        <v>1.47059048044137</v>
+        <v>0.9448095751024498</v>
       </c>
       <c r="P13">
-        <v>1.634773041264184</v>
+        <v>1.020040682313822</v>
       </c>
       <c r="Q13">
-        <v>1.634773041264184</v>
+        <v>1.020040682313822</v>
       </c>
       <c r="R13">
-        <v>1.500652539447699</v>
+        <v>1.047739215393072</v>
       </c>
       <c r="S13">
-        <v>1.500652539447699</v>
+        <v>1.047739215393072</v>
       </c>
       <c r="T13">
-        <v>1.300711947563312</v>
+        <v>0.9792972346702014</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1746352361111097</v>
+        <v>1.027647167628624</v>
       </c>
       <c r="D14">
-        <v>3.41978210220953</v>
+        <v>1.237195231023737</v>
       </c>
       <c r="E14">
-        <v>3.41978210220953</v>
+        <v>1.237195231023737</v>
       </c>
       <c r="F14">
-        <v>1.919705994951049</v>
+        <v>1.29062213526003</v>
       </c>
       <c r="G14">
-        <v>1.919705994951049</v>
+        <v>1.29062213526003</v>
       </c>
       <c r="H14">
-        <v>1.834740474472013</v>
+        <v>1.013340621427626</v>
       </c>
       <c r="I14">
-        <v>0.1456247915945228</v>
+        <v>0.7543366958458816</v>
       </c>
       <c r="J14">
-        <v>1.059089774778224</v>
+        <v>0.9307819905900426</v>
       </c>
       <c r="K14">
-        <v>1.919705994951049</v>
+        <v>1.29062213526003</v>
       </c>
       <c r="L14">
-        <v>0.1746352361111097</v>
+        <v>1.027647167628624</v>
       </c>
       <c r="M14">
-        <v>1.79720866916032</v>
+        <v>1.13242119932618</v>
       </c>
       <c r="N14">
-        <v>1.79720866916032</v>
+        <v>1.13242119932618</v>
       </c>
       <c r="O14">
-        <v>1.809719270930884</v>
+        <v>1.092727673359996</v>
       </c>
       <c r="P14">
-        <v>1.838041111090563</v>
+        <v>1.185154844637464</v>
       </c>
       <c r="Q14">
-        <v>1.838041111090563</v>
+        <v>1.185154844637464</v>
       </c>
       <c r="R14">
-        <v>1.858457332055684</v>
+        <v>1.211521667293106</v>
       </c>
       <c r="S14">
-        <v>1.858457332055684</v>
+        <v>1.211521667293106</v>
       </c>
       <c r="T14">
-        <v>1.425596395686075</v>
+        <v>1.04232064029599</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.232545222439271</v>
+        <v>0.989639002269308</v>
       </c>
       <c r="D15">
-        <v>0.002627809240744217</v>
+        <v>0.9824975127660879</v>
       </c>
       <c r="E15">
-        <v>0.002627809240744217</v>
+        <v>0.9824975127660879</v>
       </c>
       <c r="F15">
-        <v>0.02078027073299304</v>
+        <v>1.050541219657053</v>
       </c>
       <c r="G15">
-        <v>0.02078027073299304</v>
+        <v>1.050541219657053</v>
       </c>
       <c r="H15">
-        <v>1.68803231914856</v>
+        <v>0.9555350363648139</v>
       </c>
       <c r="I15">
-        <v>1.369476199899434</v>
+        <v>0.9816293827479792</v>
       </c>
       <c r="J15">
-        <v>0.9313387374426676</v>
+        <v>1.002537094226045</v>
       </c>
       <c r="K15">
-        <v>0.02078027073299304</v>
+        <v>1.050541219657053</v>
       </c>
       <c r="L15">
-        <v>1.232545222439271</v>
+        <v>0.989639002269308</v>
       </c>
       <c r="M15">
-        <v>0.6175865158400077</v>
+        <v>0.986068257517698</v>
       </c>
       <c r="N15">
-        <v>0.6175865158400077</v>
+        <v>0.986068257517698</v>
       </c>
       <c r="O15">
-        <v>0.9744017836095252</v>
+        <v>0.9758905171334034</v>
       </c>
       <c r="P15">
-        <v>0.4186511008043361</v>
+        <v>1.007559244897483</v>
       </c>
       <c r="Q15">
-        <v>0.4186511008043362</v>
+        <v>1.007559244897483</v>
       </c>
       <c r="R15">
-        <v>0.3191833932865004</v>
+        <v>1.018304738587376</v>
       </c>
       <c r="S15">
-        <v>0.3191833932865004</v>
+        <v>1.018304738587376</v>
       </c>
       <c r="T15">
-        <v>0.874133426483945</v>
+        <v>0.9937298746718811</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8723190885958978</v>
+        <v>0.9540881241053801</v>
       </c>
       <c r="D16">
-        <v>0.1982716240525943</v>
+        <v>0.8833470588205872</v>
       </c>
       <c r="E16">
-        <v>0.1982716240525943</v>
+        <v>0.8833470588205872</v>
       </c>
       <c r="F16">
-        <v>1.755008585942779</v>
+        <v>1.097522422524745</v>
       </c>
       <c r="G16">
-        <v>1.755008585942779</v>
+        <v>1.097522422524745</v>
       </c>
       <c r="H16">
-        <v>0.2163825151528899</v>
+        <v>0.9090543681114364</v>
       </c>
       <c r="I16">
-        <v>0.6855133870063155</v>
+        <v>0.9505537298916452</v>
       </c>
       <c r="J16">
-        <v>1.022125262570573</v>
+        <v>0.9847854886103488</v>
       </c>
       <c r="K16">
-        <v>1.755008585942779</v>
+        <v>1.097522422524745</v>
       </c>
       <c r="L16">
-        <v>0.8723190885958978</v>
+        <v>0.9540881241053801</v>
       </c>
       <c r="M16">
-        <v>0.5352953563242461</v>
+        <v>0.9187175914629837</v>
       </c>
       <c r="N16">
-        <v>0.5352953563242461</v>
+        <v>0.9187175914629837</v>
       </c>
       <c r="O16">
-        <v>0.428991075933794</v>
+        <v>0.9154965170124679</v>
       </c>
       <c r="P16">
-        <v>0.9418664328637569</v>
+        <v>0.978319201816904</v>
       </c>
       <c r="Q16">
-        <v>0.9418664328637569</v>
+        <v>0.978319201816904</v>
       </c>
       <c r="R16">
-        <v>1.145151971133512</v>
+        <v>1.008120006993864</v>
       </c>
       <c r="S16">
-        <v>1.145151971133512</v>
+        <v>1.008120006993864</v>
       </c>
       <c r="T16">
-        <v>0.7916034105535082</v>
+        <v>0.9632251986773571</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9850677104148882</v>
+        <v>0.9991217493748569</v>
       </c>
       <c r="D17">
-        <v>0.3963049241687018</v>
+        <v>0.6192801061974191</v>
       </c>
       <c r="E17">
-        <v>0.3963049241687018</v>
+        <v>0.6192801061974191</v>
       </c>
       <c r="F17">
-        <v>1.475237453348569</v>
+        <v>0.9944787308125864</v>
       </c>
       <c r="G17">
-        <v>1.475237453348569</v>
+        <v>0.9944787308125864</v>
       </c>
       <c r="H17">
-        <v>0.4187003194036331</v>
+        <v>0.9251059867396035</v>
       </c>
       <c r="I17">
-        <v>0.9226522745937056</v>
+        <v>0.6951985739839682</v>
       </c>
       <c r="J17">
-        <v>1.016035199587499</v>
+        <v>0.8731307857573206</v>
       </c>
       <c r="K17">
-        <v>1.475237453348569</v>
+        <v>0.9944787308125864</v>
       </c>
       <c r="L17">
-        <v>0.9850677104148882</v>
+        <v>0.9991217493748569</v>
       </c>
       <c r="M17">
-        <v>0.690686317291795</v>
+        <v>0.8092009277861381</v>
       </c>
       <c r="N17">
-        <v>0.690686317291795</v>
+        <v>0.8092009277861381</v>
       </c>
       <c r="O17">
-        <v>0.6000243179957411</v>
+        <v>0.8478359474372933</v>
       </c>
       <c r="P17">
-        <v>0.952203362644053</v>
+        <v>0.8709601954616208</v>
       </c>
       <c r="Q17">
-        <v>0.952203362644053</v>
+        <v>0.8709601954616208</v>
       </c>
       <c r="R17">
-        <v>1.082961885320182</v>
+        <v>0.9018398292993622</v>
       </c>
       <c r="S17">
-        <v>1.082961885320182</v>
+        <v>0.9018398292993622</v>
       </c>
       <c r="T17">
-        <v>0.8689996469194995</v>
+        <v>0.8510526554776258</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.212901290104071</v>
+        <v>0.8195806161569131</v>
       </c>
       <c r="D18">
-        <v>0.7845849941778587</v>
+        <v>1.789611489588995</v>
       </c>
       <c r="E18">
-        <v>0.7845849941778587</v>
+        <v>1.789611489588995</v>
       </c>
       <c r="F18">
-        <v>0.9530112008586459</v>
+        <v>1.411539595919041</v>
       </c>
       <c r="G18">
-        <v>0.9530112008586459</v>
+        <v>1.411539595919041</v>
       </c>
       <c r="H18">
-        <v>0.8212349010279795</v>
+        <v>0.4225844915764418</v>
       </c>
       <c r="I18">
-        <v>1.395436807946298</v>
+        <v>0.9337978568030243</v>
       </c>
       <c r="J18">
-        <v>1.012784851273102</v>
+        <v>0.8594090520211481</v>
       </c>
       <c r="K18">
-        <v>0.9530112008586459</v>
+        <v>1.411539595919041</v>
       </c>
       <c r="L18">
-        <v>1.212901290104071</v>
+        <v>0.8195806161569131</v>
       </c>
       <c r="M18">
-        <v>0.9987431421409646</v>
+        <v>1.304596052872954</v>
       </c>
       <c r="N18">
-        <v>0.9987431421409646</v>
+        <v>1.304596052872954</v>
       </c>
       <c r="O18">
-        <v>0.9395737284366362</v>
+        <v>1.01059219910745</v>
       </c>
       <c r="P18">
-        <v>0.983499161713525</v>
+        <v>1.340243900554983</v>
       </c>
       <c r="Q18">
-        <v>0.983499161713525</v>
+        <v>1.340243900554983</v>
       </c>
       <c r="R18">
-        <v>0.9758771714998052</v>
+        <v>1.358067824395998</v>
       </c>
       <c r="S18">
-        <v>0.9758771714998052</v>
+        <v>1.358067824395998</v>
       </c>
       <c r="T18">
-        <v>1.029992340897992</v>
+        <v>1.039420517010927</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.346443177847401</v>
+        <v>1.002116304104381</v>
       </c>
       <c r="D19">
-        <v>0.7590534233716273</v>
+        <v>0.9992340446463303</v>
       </c>
       <c r="E19">
-        <v>0.7590534233716273</v>
+        <v>0.9992340446463303</v>
       </c>
       <c r="F19">
-        <v>0.8592724195351429</v>
+        <v>1.003667642808365</v>
       </c>
       <c r="G19">
-        <v>0.8592724195351429</v>
+        <v>1.003667642808365</v>
       </c>
       <c r="H19">
-        <v>0.8390952770782442</v>
+        <v>0.9979958538094204</v>
       </c>
       <c r="I19">
-        <v>1.400832096336024</v>
+        <v>1.001241138171986</v>
       </c>
       <c r="J19">
-        <v>0.9456020791841662</v>
+        <v>0.9988069448159292</v>
       </c>
       <c r="K19">
-        <v>0.8592724195351429</v>
+        <v>1.003667642808365</v>
       </c>
       <c r="L19">
-        <v>1.346443177847401</v>
+        <v>1.002116304104381</v>
       </c>
       <c r="M19">
-        <v>1.052748300609514</v>
+        <v>1.000675174375356</v>
       </c>
       <c r="N19">
-        <v>1.052748300609514</v>
+        <v>1.000675174375356</v>
       </c>
       <c r="O19">
-        <v>0.9815306260990909</v>
+        <v>0.9997820675200439</v>
       </c>
       <c r="P19">
-        <v>0.9882563402513904</v>
+        <v>1.001672663853025</v>
       </c>
       <c r="Q19">
-        <v>0.9882563402513904</v>
+        <v>1.001672663853025</v>
       </c>
       <c r="R19">
-        <v>0.9560103600723285</v>
+        <v>1.00217140859186</v>
       </c>
       <c r="S19">
-        <v>0.9560103600723285</v>
+        <v>1.00217140859186</v>
       </c>
       <c r="T19">
-        <v>1.025049745558768</v>
+        <v>1.000510321392735</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.008975085568029</v>
+        <v>1.002507699741749</v>
       </c>
       <c r="D20">
-        <v>1.001408900416044</v>
+        <v>0.9924400756700537</v>
       </c>
       <c r="E20">
-        <v>1.001408900416044</v>
+        <v>0.9924400756700537</v>
       </c>
       <c r="F20">
-        <v>0.9889247942658974</v>
+        <v>1.015217704962765</v>
       </c>
       <c r="G20">
-        <v>0.9889247942658974</v>
+        <v>1.015217704962765</v>
       </c>
       <c r="H20">
-        <v>1.001140825011323</v>
+        <v>0.9952985499878191</v>
       </c>
       <c r="I20">
-        <v>1.005531437017992</v>
+        <v>0.9994254430496223</v>
       </c>
       <c r="J20">
-        <v>0.9983746269812633</v>
+        <v>0.9991375993798122</v>
       </c>
       <c r="K20">
-        <v>0.9889247942658974</v>
+        <v>1.015217704962765</v>
       </c>
       <c r="L20">
-        <v>1.008975085568029</v>
+        <v>1.002507699741749</v>
       </c>
       <c r="M20">
-        <v>1.005191992992037</v>
+        <v>0.9974738877059015</v>
       </c>
       <c r="N20">
-        <v>1.005191992992037</v>
+        <v>0.9974738877059015</v>
       </c>
       <c r="O20">
-        <v>1.003841603665132</v>
+        <v>0.9967487751332073</v>
       </c>
       <c r="P20">
-        <v>0.9997695934166568</v>
+        <v>1.003388493458189</v>
       </c>
       <c r="Q20">
-        <v>0.9997695934166568</v>
+        <v>1.003388493458189</v>
       </c>
       <c r="R20">
-        <v>0.997058393628967</v>
+        <v>1.006345796334333</v>
       </c>
       <c r="S20">
-        <v>0.997058393628967</v>
+        <v>1.006345796334333</v>
       </c>
       <c r="T20">
-        <v>1.000725944876758</v>
+        <v>1.000671178798637</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9924101642594766</v>
+        <v>1.017033413325553</v>
       </c>
       <c r="D21">
-        <v>1.000319665283988</v>
+        <v>0.9930889611819136</v>
       </c>
       <c r="E21">
-        <v>1.000319665283988</v>
+        <v>0.9930889611819136</v>
       </c>
       <c r="F21">
-        <v>1.022235747652223</v>
+        <v>1.062552636249771</v>
       </c>
       <c r="G21">
-        <v>1.022235747652223</v>
+        <v>1.062552636249771</v>
       </c>
       <c r="H21">
-        <v>0.9981719549974212</v>
+        <v>0.9930936692391228</v>
       </c>
       <c r="I21">
-        <v>0.9991074780891017</v>
+        <v>1.013065535706044</v>
       </c>
       <c r="J21">
-        <v>1.000587706943871</v>
+        <v>0.9918019649946318</v>
       </c>
       <c r="K21">
-        <v>1.022235747652223</v>
+        <v>1.062552636249771</v>
       </c>
       <c r="L21">
-        <v>0.9924101642594766</v>
+        <v>1.017033413325553</v>
       </c>
       <c r="M21">
-        <v>0.9963649147717324</v>
+        <v>1.005061187253733</v>
       </c>
       <c r="N21">
-        <v>0.9963649147717324</v>
+        <v>1.005061187253733</v>
       </c>
       <c r="O21">
-        <v>0.9969672615136287</v>
+        <v>1.001072014582197</v>
       </c>
       <c r="P21">
-        <v>1.004988525731896</v>
+        <v>1.024225003585746</v>
       </c>
       <c r="Q21">
-        <v>1.004988525731896</v>
+        <v>1.024225003585746</v>
       </c>
       <c r="R21">
-        <v>1.009300331211977</v>
+        <v>1.033806911751752</v>
       </c>
       <c r="S21">
-        <v>1.009300331211977</v>
+        <v>1.033806911751752</v>
       </c>
       <c r="T21">
-        <v>1.002138786204347</v>
+        <v>1.011772696782839</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.008637648358219</v>
+        <v>1.009463378917367</v>
       </c>
       <c r="D22">
-        <v>0.9909691756832414</v>
+        <v>0.9827206559784334</v>
       </c>
       <c r="E22">
-        <v>0.9909691756832414</v>
+        <v>0.9827206559784334</v>
       </c>
       <c r="F22">
-        <v>1.111972894212945</v>
+        <v>1.074543995282749</v>
       </c>
       <c r="G22">
-        <v>1.111972894212945</v>
+        <v>1.074543995282749</v>
       </c>
       <c r="H22">
-        <v>0.9914177580555773</v>
+        <v>0.9826155931610463</v>
       </c>
       <c r="I22">
-        <v>1.018284271939523</v>
+        <v>1.013911826369526</v>
       </c>
       <c r="J22">
-        <v>1.004392640781794</v>
+        <v>0.9970198950437998</v>
       </c>
       <c r="K22">
-        <v>1.111972894212945</v>
+        <v>1.074543995282749</v>
       </c>
       <c r="L22">
-        <v>1.008637648358219</v>
+        <v>1.009463378917367</v>
       </c>
       <c r="M22">
-        <v>0.9998034120207302</v>
+        <v>0.9960920174479</v>
       </c>
       <c r="N22">
-        <v>0.9998034120207302</v>
+        <v>0.9960920174479</v>
       </c>
       <c r="O22">
-        <v>0.9970081940323459</v>
+        <v>0.9915998760189488</v>
       </c>
       <c r="P22">
-        <v>1.037193239418135</v>
+        <v>1.022242676726183</v>
       </c>
       <c r="Q22">
-        <v>1.037193239418135</v>
+        <v>1.022242676726183</v>
       </c>
       <c r="R22">
-        <v>1.055888153116837</v>
+        <v>1.035318006365324</v>
       </c>
       <c r="S22">
-        <v>1.055888153116837</v>
+        <v>1.035318006365324</v>
       </c>
       <c r="T22">
-        <v>1.020945731505217</v>
+        <v>1.010045890792153</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.029046733070148</v>
+      </c>
+      <c r="D23">
+        <v>1.073930944309927</v>
+      </c>
+      <c r="E23">
+        <v>1.073930944309927</v>
+      </c>
+      <c r="F23">
+        <v>1.299474744863165</v>
+      </c>
+      <c r="G23">
+        <v>1.299474744863165</v>
+      </c>
+      <c r="H23">
+        <v>1.0620795190162</v>
+      </c>
+      <c r="I23">
+        <v>0.9701192604429481</v>
+      </c>
+      <c r="J23">
+        <v>0.944353215695659</v>
+      </c>
+      <c r="K23">
+        <v>1.299474744863165</v>
+      </c>
+      <c r="L23">
+        <v>1.029046733070148</v>
+      </c>
+      <c r="M23">
+        <v>1.051488838690037</v>
+      </c>
+      <c r="N23">
+        <v>1.051488838690037</v>
+      </c>
+      <c r="O23">
+        <v>1.055019065465425</v>
+      </c>
+      <c r="P23">
+        <v>1.134150807414413</v>
+      </c>
+      <c r="Q23">
+        <v>1.134150807414413</v>
+      </c>
+      <c r="R23">
+        <v>1.175481791776601</v>
+      </c>
+      <c r="S23">
+        <v>1.175481791776601</v>
+      </c>
+      <c r="T23">
+        <v>1.063167402899674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.200527794721968</v>
+      </c>
+      <c r="D24">
+        <v>0.02839472598084422</v>
+      </c>
+      <c r="E24">
+        <v>0.02839472598084422</v>
+      </c>
+      <c r="F24">
+        <v>0.8442444508594681</v>
+      </c>
+      <c r="G24">
+        <v>0.8442444508594681</v>
+      </c>
+      <c r="H24">
+        <v>1.667427177532818</v>
+      </c>
+      <c r="I24">
+        <v>0.007220350187736538</v>
+      </c>
+      <c r="J24">
+        <v>1.46987205148518</v>
+      </c>
+      <c r="K24">
+        <v>0.8442444508594681</v>
+      </c>
+      <c r="L24">
+        <v>1.200527794721968</v>
+      </c>
+      <c r="M24">
+        <v>0.6144612603514059</v>
+      </c>
+      <c r="N24">
+        <v>0.6144612603514059</v>
+      </c>
+      <c r="O24">
+        <v>0.9654498994118766</v>
+      </c>
+      <c r="P24">
+        <v>0.6910556571874267</v>
+      </c>
+      <c r="Q24">
+        <v>0.6910556571874267</v>
+      </c>
+      <c r="R24">
+        <v>0.7293528556054371</v>
+      </c>
+      <c r="S24">
+        <v>0.7293528556054371</v>
+      </c>
+      <c r="T24">
+        <v>0.8696144251280025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.4933474806868863</v>
+      </c>
+      <c r="D25">
+        <v>3.312680609107422</v>
+      </c>
+      <c r="E25">
+        <v>3.312680609107422</v>
+      </c>
+      <c r="F25">
+        <v>1.098291033998245</v>
+      </c>
+      <c r="G25">
+        <v>1.098291033998245</v>
+      </c>
+      <c r="H25">
+        <v>0.6057433515298005</v>
+      </c>
+      <c r="I25">
+        <v>1.629499496735312</v>
+      </c>
+      <c r="J25">
+        <v>0.6647097133222074</v>
+      </c>
+      <c r="K25">
+        <v>1.098291033998245</v>
+      </c>
+      <c r="L25">
+        <v>0.4933474806868863</v>
+      </c>
+      <c r="M25">
+        <v>1.903014044897154</v>
+      </c>
+      <c r="N25">
+        <v>1.903014044897154</v>
+      </c>
+      <c r="O25">
+        <v>1.47059048044137</v>
+      </c>
+      <c r="P25">
+        <v>1.634773041264184</v>
+      </c>
+      <c r="Q25">
+        <v>1.634773041264184</v>
+      </c>
+      <c r="R25">
+        <v>1.500652539447699</v>
+      </c>
+      <c r="S25">
+        <v>1.500652539447699</v>
+      </c>
+      <c r="T25">
+        <v>1.300711947563312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.1746352361111097</v>
+      </c>
+      <c r="D26">
+        <v>3.41978210220953</v>
+      </c>
+      <c r="E26">
+        <v>3.41978210220953</v>
+      </c>
+      <c r="F26">
+        <v>1.919705994951049</v>
+      </c>
+      <c r="G26">
+        <v>1.919705994951049</v>
+      </c>
+      <c r="H26">
+        <v>1.834740474472013</v>
+      </c>
+      <c r="I26">
+        <v>0.1456247915945228</v>
+      </c>
+      <c r="J26">
+        <v>1.059089774778224</v>
+      </c>
+      <c r="K26">
+        <v>1.919705994951049</v>
+      </c>
+      <c r="L26">
+        <v>0.1746352361111097</v>
+      </c>
+      <c r="M26">
+        <v>1.79720866916032</v>
+      </c>
+      <c r="N26">
+        <v>1.79720866916032</v>
+      </c>
+      <c r="O26">
+        <v>1.809719270930884</v>
+      </c>
+      <c r="P26">
+        <v>1.838041111090563</v>
+      </c>
+      <c r="Q26">
+        <v>1.838041111090563</v>
+      </c>
+      <c r="R26">
+        <v>1.858457332055684</v>
+      </c>
+      <c r="S26">
+        <v>1.858457332055684</v>
+      </c>
+      <c r="T26">
+        <v>1.425596395686075</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.232545222439271</v>
+      </c>
+      <c r="D27">
+        <v>0.002627809240744217</v>
+      </c>
+      <c r="E27">
+        <v>0.002627809240744217</v>
+      </c>
+      <c r="F27">
+        <v>0.02078027073299304</v>
+      </c>
+      <c r="G27">
+        <v>0.02078027073299304</v>
+      </c>
+      <c r="H27">
+        <v>1.68803231914856</v>
+      </c>
+      <c r="I27">
+        <v>1.369476199899434</v>
+      </c>
+      <c r="J27">
+        <v>0.9313387374426676</v>
+      </c>
+      <c r="K27">
+        <v>0.02078027073299304</v>
+      </c>
+      <c r="L27">
+        <v>1.232545222439271</v>
+      </c>
+      <c r="M27">
+        <v>0.6175865158400077</v>
+      </c>
+      <c r="N27">
+        <v>0.6175865158400077</v>
+      </c>
+      <c r="O27">
+        <v>0.9744017836095252</v>
+      </c>
+      <c r="P27">
+        <v>0.4186511008043361</v>
+      </c>
+      <c r="Q27">
+        <v>0.4186511008043362</v>
+      </c>
+      <c r="R27">
+        <v>0.3191833932865004</v>
+      </c>
+      <c r="S27">
+        <v>0.3191833932865004</v>
+      </c>
+      <c r="T27">
+        <v>0.874133426483945</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.8723190885958978</v>
+      </c>
+      <c r="D28">
+        <v>0.1982716240525943</v>
+      </c>
+      <c r="E28">
+        <v>0.1982716240525943</v>
+      </c>
+      <c r="F28">
+        <v>1.755008585942779</v>
+      </c>
+      <c r="G28">
+        <v>1.755008585942779</v>
+      </c>
+      <c r="H28">
+        <v>0.2163825151528899</v>
+      </c>
+      <c r="I28">
+        <v>0.6855133870063155</v>
+      </c>
+      <c r="J28">
+        <v>1.022125262570573</v>
+      </c>
+      <c r="K28">
+        <v>1.755008585942779</v>
+      </c>
+      <c r="L28">
+        <v>0.8723190885958978</v>
+      </c>
+      <c r="M28">
+        <v>0.5352953563242461</v>
+      </c>
+      <c r="N28">
+        <v>0.5352953563242461</v>
+      </c>
+      <c r="O28">
+        <v>0.428991075933794</v>
+      </c>
+      <c r="P28">
+        <v>0.9418664328637569</v>
+      </c>
+      <c r="Q28">
+        <v>0.9418664328637569</v>
+      </c>
+      <c r="R28">
+        <v>1.145151971133512</v>
+      </c>
+      <c r="S28">
+        <v>1.145151971133512</v>
+      </c>
+      <c r="T28">
+        <v>0.7916034105535082</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9850677104148882</v>
+      </c>
+      <c r="D29">
+        <v>0.3963049241687018</v>
+      </c>
+      <c r="E29">
+        <v>0.3963049241687018</v>
+      </c>
+      <c r="F29">
+        <v>1.475237453348569</v>
+      </c>
+      <c r="G29">
+        <v>1.475237453348569</v>
+      </c>
+      <c r="H29">
+        <v>0.4187003194036331</v>
+      </c>
+      <c r="I29">
+        <v>0.9226522745937056</v>
+      </c>
+      <c r="J29">
+        <v>1.016035199587499</v>
+      </c>
+      <c r="K29">
+        <v>1.475237453348569</v>
+      </c>
+      <c r="L29">
+        <v>0.9850677104148882</v>
+      </c>
+      <c r="M29">
+        <v>0.690686317291795</v>
+      </c>
+      <c r="N29">
+        <v>0.690686317291795</v>
+      </c>
+      <c r="O29">
+        <v>0.6000243179957411</v>
+      </c>
+      <c r="P29">
+        <v>0.952203362644053</v>
+      </c>
+      <c r="Q29">
+        <v>0.952203362644053</v>
+      </c>
+      <c r="R29">
+        <v>1.082961885320182</v>
+      </c>
+      <c r="S29">
+        <v>1.082961885320182</v>
+      </c>
+      <c r="T29">
+        <v>0.8689996469194995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.212901290104071</v>
+      </c>
+      <c r="D30">
+        <v>0.7845849941778587</v>
+      </c>
+      <c r="E30">
+        <v>0.7845849941778587</v>
+      </c>
+      <c r="F30">
+        <v>0.9530112008586459</v>
+      </c>
+      <c r="G30">
+        <v>0.9530112008586459</v>
+      </c>
+      <c r="H30">
+        <v>0.8212349010279795</v>
+      </c>
+      <c r="I30">
+        <v>1.395436807946298</v>
+      </c>
+      <c r="J30">
+        <v>1.012784851273102</v>
+      </c>
+      <c r="K30">
+        <v>0.9530112008586459</v>
+      </c>
+      <c r="L30">
+        <v>1.212901290104071</v>
+      </c>
+      <c r="M30">
+        <v>0.9987431421409646</v>
+      </c>
+      <c r="N30">
+        <v>0.9987431421409646</v>
+      </c>
+      <c r="O30">
+        <v>0.9395737284366362</v>
+      </c>
+      <c r="P30">
+        <v>0.983499161713525</v>
+      </c>
+      <c r="Q30">
+        <v>0.983499161713525</v>
+      </c>
+      <c r="R30">
+        <v>0.9758771714998052</v>
+      </c>
+      <c r="S30">
+        <v>0.9758771714998052</v>
+      </c>
+      <c r="T30">
+        <v>1.029992340897992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.346443177847401</v>
+      </c>
+      <c r="D31">
+        <v>0.7590534233716273</v>
+      </c>
+      <c r="E31">
+        <v>0.7590534233716273</v>
+      </c>
+      <c r="F31">
+        <v>0.8592724195351429</v>
+      </c>
+      <c r="G31">
+        <v>0.8592724195351429</v>
+      </c>
+      <c r="H31">
+        <v>0.8390952770782442</v>
+      </c>
+      <c r="I31">
+        <v>1.400832096336024</v>
+      </c>
+      <c r="J31">
+        <v>0.9456020791841662</v>
+      </c>
+      <c r="K31">
+        <v>0.8592724195351429</v>
+      </c>
+      <c r="L31">
+        <v>1.346443177847401</v>
+      </c>
+      <c r="M31">
+        <v>1.052748300609514</v>
+      </c>
+      <c r="N31">
+        <v>1.052748300609514</v>
+      </c>
+      <c r="O31">
+        <v>0.9815306260990909</v>
+      </c>
+      <c r="P31">
+        <v>0.9882563402513904</v>
+      </c>
+      <c r="Q31">
+        <v>0.9882563402513904</v>
+      </c>
+      <c r="R31">
+        <v>0.9560103600723285</v>
+      </c>
+      <c r="S31">
+        <v>0.9560103600723285</v>
+      </c>
+      <c r="T31">
+        <v>1.025049745558768</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.7497518671079453</v>
+      </c>
+      <c r="D32">
+        <v>-0.0001733043334246576</v>
+      </c>
+      <c r="E32">
+        <v>-0.0001733043334246576</v>
+      </c>
+      <c r="F32">
+        <v>2.427978069021918</v>
+      </c>
+      <c r="G32">
+        <v>2.427978069021918</v>
+      </c>
+      <c r="H32">
+        <v>0.01343725088958904</v>
+      </c>
+      <c r="I32">
+        <v>0.4420116470917808</v>
+      </c>
+      <c r="J32">
+        <v>1.013467748432877</v>
+      </c>
+      <c r="K32">
+        <v>2.427978069021918</v>
+      </c>
+      <c r="L32">
+        <v>0.7497518671079453</v>
+      </c>
+      <c r="M32">
+        <v>0.3747892813872603</v>
+      </c>
+      <c r="N32">
+        <v>0.3747892813872603</v>
+      </c>
+      <c r="O32">
+        <v>0.2543386045547032</v>
+      </c>
+      <c r="P32">
+        <v>1.059185543932146</v>
+      </c>
+      <c r="Q32">
+        <v>1.059185543932146</v>
+      </c>
+      <c r="R32">
+        <v>1.401383675204589</v>
+      </c>
+      <c r="S32">
+        <v>1.401383675204589</v>
+      </c>
+      <c r="T32">
+        <v>0.7744122130351143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.782396051523685</v>
+      </c>
+      <c r="D33">
+        <v>3.407042811656841</v>
+      </c>
+      <c r="E33">
+        <v>3.407042811656841</v>
+      </c>
+      <c r="F33">
+        <v>1.704754748814842</v>
+      </c>
+      <c r="G33">
+        <v>1.704754748814842</v>
+      </c>
+      <c r="H33">
+        <v>0.03204713580263158</v>
+      </c>
+      <c r="I33">
+        <v>5.340428626394736</v>
+      </c>
+      <c r="J33">
+        <v>0.1297465259352632</v>
+      </c>
+      <c r="K33">
+        <v>1.704754748814842</v>
+      </c>
+      <c r="L33">
+        <v>1.782396051523685</v>
+      </c>
+      <c r="M33">
+        <v>2.594719431590263</v>
+      </c>
+      <c r="N33">
+        <v>2.594719431590263</v>
+      </c>
+      <c r="O33">
+        <v>1.740495332994386</v>
+      </c>
+      <c r="P33">
+        <v>2.298064537331789</v>
+      </c>
+      <c r="Q33">
+        <v>2.298064537331789</v>
+      </c>
+      <c r="R33">
+        <v>2.149737090202553</v>
+      </c>
+      <c r="S33">
+        <v>2.149737090202553</v>
+      </c>
+      <c r="T33">
+        <v>2.066069316688</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.297729018127369</v>
+      </c>
+      <c r="D34">
+        <v>0.0007504029778947371</v>
+      </c>
+      <c r="E34">
+        <v>0.0007504029778947371</v>
+      </c>
+      <c r="F34">
+        <v>3.390952179156842</v>
+      </c>
+      <c r="G34">
+        <v>3.390952179156842</v>
+      </c>
+      <c r="H34">
+        <v>0.002099502468947368</v>
+      </c>
+      <c r="I34">
+        <v>0.102149162568421</v>
+      </c>
+      <c r="J34">
+        <v>1.292535520063158</v>
+      </c>
+      <c r="K34">
+        <v>3.390952179156842</v>
+      </c>
+      <c r="L34">
+        <v>1.297729018127369</v>
+      </c>
+      <c r="M34">
+        <v>0.6492397105526317</v>
+      </c>
+      <c r="N34">
+        <v>0.6492397105526317</v>
+      </c>
+      <c r="O34">
+        <v>0.4335263078580703</v>
+      </c>
+      <c r="P34">
+        <v>1.563143866754035</v>
+      </c>
+      <c r="Q34">
+        <v>1.563143866754035</v>
+      </c>
+      <c r="R34">
+        <v>2.020095944854737</v>
+      </c>
+      <c r="S34">
+        <v>2.020095944854737</v>
+      </c>
+      <c r="T34">
+        <v>1.014369297560439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.861373218785611</v>
+      </c>
+      <c r="D35">
+        <v>0.4027792959725818</v>
+      </c>
+      <c r="E35">
+        <v>0.4027792959725818</v>
+      </c>
+      <c r="F35">
+        <v>0.4348506071207253</v>
+      </c>
+      <c r="G35">
+        <v>0.4348506071207253</v>
+      </c>
+      <c r="H35">
+        <v>0.4140040415198828</v>
+      </c>
+      <c r="I35">
+        <v>1.308626371820613</v>
+      </c>
+      <c r="J35">
+        <v>0.5544990891665755</v>
+      </c>
+      <c r="K35">
+        <v>0.4348506071207253</v>
+      </c>
+      <c r="L35">
+        <v>1.861373218785611</v>
+      </c>
+      <c r="M35">
+        <v>1.132076257379096</v>
+      </c>
+      <c r="N35">
+        <v>1.132076257379096</v>
+      </c>
+      <c r="O35">
+        <v>0.8927188520926919</v>
+      </c>
+      <c r="P35">
+        <v>0.8996677072929726</v>
+      </c>
+      <c r="Q35">
+        <v>0.8996677072929726</v>
+      </c>
+      <c r="R35">
+        <v>0.7834634322499108</v>
+      </c>
+      <c r="S35">
+        <v>0.7834634322499108</v>
+      </c>
+      <c r="T35">
+        <v>0.8293554373976649</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.008975085568029</v>
+      </c>
+      <c r="D36">
+        <v>1.001408900416044</v>
+      </c>
+      <c r="E36">
+        <v>1.001408900416044</v>
+      </c>
+      <c r="F36">
+        <v>0.9889247942658974</v>
+      </c>
+      <c r="G36">
+        <v>0.9889247942658974</v>
+      </c>
+      <c r="H36">
+        <v>1.001140825011323</v>
+      </c>
+      <c r="I36">
+        <v>1.005531437017992</v>
+      </c>
+      <c r="J36">
+        <v>0.9983746269812633</v>
+      </c>
+      <c r="K36">
+        <v>0.9889247942658974</v>
+      </c>
+      <c r="L36">
+        <v>1.008975085568029</v>
+      </c>
+      <c r="M36">
+        <v>1.005191992992037</v>
+      </c>
+      <c r="N36">
+        <v>1.005191992992037</v>
+      </c>
+      <c r="O36">
+        <v>1.003841603665132</v>
+      </c>
+      <c r="P36">
+        <v>0.9997695934166568</v>
+      </c>
+      <c r="Q36">
+        <v>0.9997695934166568</v>
+      </c>
+      <c r="R36">
+        <v>0.997058393628967</v>
+      </c>
+      <c r="S36">
+        <v>0.997058393628967</v>
+      </c>
+      <c r="T36">
+        <v>1.000725944876758</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9924101642594766</v>
+      </c>
+      <c r="D37">
+        <v>1.000319665283988</v>
+      </c>
+      <c r="E37">
+        <v>1.000319665283988</v>
+      </c>
+      <c r="F37">
+        <v>1.022235747652223</v>
+      </c>
+      <c r="G37">
+        <v>1.022235747652223</v>
+      </c>
+      <c r="H37">
+        <v>0.9981719549974212</v>
+      </c>
+      <c r="I37">
+        <v>0.9991074780891017</v>
+      </c>
+      <c r="J37">
+        <v>1.000587706943871</v>
+      </c>
+      <c r="K37">
+        <v>1.022235747652223</v>
+      </c>
+      <c r="L37">
+        <v>0.9924101642594766</v>
+      </c>
+      <c r="M37">
+        <v>0.9963649147717324</v>
+      </c>
+      <c r="N37">
+        <v>0.9963649147717324</v>
+      </c>
+      <c r="O37">
+        <v>0.9969672615136287</v>
+      </c>
+      <c r="P37">
+        <v>1.004988525731896</v>
+      </c>
+      <c r="Q37">
+        <v>1.004988525731896</v>
+      </c>
+      <c r="R37">
+        <v>1.009300331211977</v>
+      </c>
+      <c r="S37">
+        <v>1.009300331211977</v>
+      </c>
+      <c r="T37">
+        <v>1.002138786204347</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.008637648358219</v>
+      </c>
+      <c r="D38">
+        <v>0.9909691756832414</v>
+      </c>
+      <c r="E38">
+        <v>0.9909691756832414</v>
+      </c>
+      <c r="F38">
+        <v>1.111972894212945</v>
+      </c>
+      <c r="G38">
+        <v>1.111972894212945</v>
+      </c>
+      <c r="H38">
+        <v>0.9914177580555773</v>
+      </c>
+      <c r="I38">
+        <v>1.018284271939523</v>
+      </c>
+      <c r="J38">
+        <v>1.004392640781794</v>
+      </c>
+      <c r="K38">
+        <v>1.111972894212945</v>
+      </c>
+      <c r="L38">
+        <v>1.008637648358219</v>
+      </c>
+      <c r="M38">
+        <v>0.9998034120207302</v>
+      </c>
+      <c r="N38">
+        <v>0.9998034120207302</v>
+      </c>
+      <c r="O38">
+        <v>0.9970081940323459</v>
+      </c>
+      <c r="P38">
+        <v>1.037193239418135</v>
+      </c>
+      <c r="Q38">
+        <v>1.037193239418135</v>
+      </c>
+      <c r="R38">
+        <v>1.055888153116837</v>
+      </c>
+      <c r="S38">
+        <v>1.055888153116837</v>
+      </c>
+      <c r="T38">
+        <v>1.020945731505217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.157169476054419</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.6669968676775767</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.6669968676775767</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9605819309588933</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9605819309588933</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.074046226701863</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9750234546700978</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9302875081231422</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9605819309588933</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.157169476054419</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9120831718659979</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9120831718659979</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9660708568112861</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.928249424896963</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.928249424896963</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9363325514124456</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9363325514124456</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9606842440309987</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.116401295314435</v>
+      </c>
+      <c r="D40">
+        <v>0.847004868721963</v>
+      </c>
+      <c r="E40">
+        <v>0.847004868721963</v>
+      </c>
+      <c r="F40">
+        <v>0.89715071011495</v>
+      </c>
+      <c r="G40">
+        <v>0.89715071011495</v>
+      </c>
+      <c r="H40">
+        <v>0.8048565004550902</v>
+      </c>
+      <c r="I40">
+        <v>1.899374625469813</v>
+      </c>
+      <c r="J40">
+        <v>0.9791338729509627</v>
+      </c>
+      <c r="K40">
+        <v>0.89715071011495</v>
+      </c>
+      <c r="L40">
+        <v>1.116401295314435</v>
+      </c>
+      <c r="M40">
+        <v>0.9817030820181989</v>
+      </c>
+      <c r="N40">
+        <v>0.9817030820181989</v>
+      </c>
+      <c r="O40">
+        <v>0.9227542214971627</v>
+      </c>
+      <c r="P40">
+        <v>0.9535189580504492</v>
+      </c>
+      <c r="Q40">
+        <v>0.9535189580504492</v>
+      </c>
+      <c r="R40">
+        <v>0.9394268960665744</v>
+      </c>
+      <c r="S40">
+        <v>0.9394268960665744</v>
+      </c>
+      <c r="T40">
+        <v>1.090653645504536</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9898195057786424</v>
+      </c>
+      <c r="D41">
+        <v>0.9640971942380162</v>
+      </c>
+      <c r="E41">
+        <v>0.9640971942380162</v>
+      </c>
+      <c r="F41">
+        <v>1.049626464165527</v>
+      </c>
+      <c r="G41">
+        <v>1.049626464165527</v>
+      </c>
+      <c r="H41">
+        <v>1.013184965724168</v>
+      </c>
+      <c r="I41">
+        <v>0.8755138108651539</v>
+      </c>
+      <c r="J41">
+        <v>0.9959148306473192</v>
+      </c>
+      <c r="K41">
+        <v>1.049626464165527</v>
+      </c>
+      <c r="L41">
+        <v>0.9898195057786424</v>
+      </c>
+      <c r="M41">
+        <v>0.9769583500083293</v>
+      </c>
+      <c r="N41">
+        <v>0.9769583500083293</v>
+      </c>
+      <c r="O41">
+        <v>0.9890338885802755</v>
+      </c>
+      <c r="P41">
+        <v>1.001181054727395</v>
+      </c>
+      <c r="Q41">
+        <v>1.001181054727395</v>
+      </c>
+      <c r="R41">
+        <v>1.013292407086928</v>
+      </c>
+      <c r="S41">
+        <v>1.013292407086928</v>
+      </c>
+      <c r="T41">
+        <v>0.9813594619031377</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.7843102937998138</v>
+      </c>
+      <c r="D42">
+        <v>0.5329812846778444</v>
+      </c>
+      <c r="E42">
+        <v>0.5329812846778444</v>
+      </c>
+      <c r="F42">
+        <v>1.309007424592447</v>
+      </c>
+      <c r="G42">
+        <v>1.309007424592447</v>
+      </c>
+      <c r="H42">
+        <v>0.7143016837098431</v>
+      </c>
+      <c r="I42">
+        <v>1.644178009785566</v>
+      </c>
+      <c r="J42">
+        <v>1.030294253506904</v>
+      </c>
+      <c r="K42">
+        <v>1.309007424592447</v>
+      </c>
+      <c r="L42">
+        <v>0.7843102937998138</v>
+      </c>
+      <c r="M42">
+        <v>0.6586457892388291</v>
+      </c>
+      <c r="N42">
+        <v>0.6586457892388291</v>
+      </c>
+      <c r="O42">
+        <v>0.6771977540625005</v>
+      </c>
+      <c r="P42">
+        <v>0.8754330010233685</v>
+      </c>
+      <c r="Q42">
+        <v>0.8754330010233685</v>
+      </c>
+      <c r="R42">
+        <v>0.9838266069156382</v>
+      </c>
+      <c r="S42">
+        <v>0.9838266069156382</v>
+      </c>
+      <c r="T42">
+        <v>1.002512158345403</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW05.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.050541219657053</v>
+        <v>1.002507699741749</v>
       </c>
       <c r="D3">
-        <v>0.9824975127660879</v>
+        <v>0.9924400756700537</v>
       </c>
       <c r="E3">
-        <v>0.989639002269308</v>
+        <v>0.9924400756700537</v>
       </c>
       <c r="F3">
-        <v>1.050541219657053</v>
+        <v>1.015217704962765</v>
       </c>
       <c r="G3">
-        <v>0.9816293827479794</v>
+        <v>1.015217704962765</v>
       </c>
       <c r="H3">
-        <v>0.9555350363648139</v>
+        <v>0.9952985499878191</v>
       </c>
       <c r="I3">
-        <v>1.002537094226045</v>
+        <v>0.9994254430496223</v>
       </c>
       <c r="J3">
-        <v>0.9824975127660879</v>
+        <v>0.9991375993798122</v>
       </c>
       <c r="K3">
-        <v>1.050541219657053</v>
+        <v>1.015217704962765</v>
       </c>
       <c r="L3">
-        <v>0.989639002269308</v>
+        <v>1.002507699741749</v>
       </c>
       <c r="M3">
-        <v>0.986068257517698</v>
+        <v>0.9974738877059015</v>
       </c>
       <c r="N3">
-        <v>0.986068257517698</v>
+        <v>0.9974738877059015</v>
       </c>
       <c r="O3">
-        <v>0.9758905171334034</v>
+        <v>0.9967487751332073</v>
       </c>
       <c r="P3">
-        <v>1.007559244897483</v>
+        <v>1.003388493458189</v>
       </c>
       <c r="Q3">
-        <v>1.007559244897483</v>
+        <v>1.003388493458189</v>
       </c>
       <c r="R3">
-        <v>1.018304738587376</v>
+        <v>1.006345796334333</v>
       </c>
       <c r="S3">
-        <v>1.018304738587376</v>
+        <v>1.006345796334333</v>
       </c>
       <c r="T3">
-        <v>0.9937298746718813</v>
+        <v>1.000671178798637</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.097522422524745</v>
+        <v>1.116401295314435</v>
       </c>
       <c r="D4">
-        <v>0.8833470588205872</v>
+        <v>0.847004868721963</v>
       </c>
       <c r="E4">
-        <v>0.9540881241053798</v>
+        <v>0.847004868721963</v>
       </c>
       <c r="F4">
-        <v>1.097522422524745</v>
+        <v>0.89715071011495</v>
       </c>
       <c r="G4">
-        <v>0.9505537298916452</v>
+        <v>0.89715071011495</v>
       </c>
       <c r="H4">
-        <v>0.9090543681114364</v>
+        <v>0.8048565004550902</v>
       </c>
       <c r="I4">
-        <v>0.9847854886103486</v>
+        <v>1.899374625469813</v>
       </c>
       <c r="J4">
-        <v>0.8833470588205872</v>
+        <v>0.9791338729509627</v>
       </c>
       <c r="K4">
-        <v>1.097522422524745</v>
+        <v>0.89715071011495</v>
       </c>
       <c r="L4">
-        <v>0.9540881241053798</v>
+        <v>1.116401295314435</v>
       </c>
       <c r="M4">
-        <v>0.9187175914629835</v>
+        <v>0.9817030820181989</v>
       </c>
       <c r="N4">
-        <v>0.9187175914629835</v>
+        <v>0.9817030820181989</v>
       </c>
       <c r="O4">
-        <v>0.9154965170124677</v>
+        <v>0.9227542214971627</v>
       </c>
       <c r="P4">
-        <v>0.9783192018169039</v>
+        <v>0.9535189580504492</v>
       </c>
       <c r="Q4">
-        <v>0.9783192018169039</v>
+        <v>0.9535189580504492</v>
       </c>
       <c r="R4">
-        <v>1.008120006993864</v>
+        <v>0.9394268960665744</v>
       </c>
       <c r="S4">
-        <v>1.008120006993864</v>
+        <v>0.9394268960665744</v>
       </c>
       <c r="T4">
-        <v>0.9632251986773571</v>
+        <v>1.090653645504536</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9944787308125864</v>
+        <v>1.233938386829547</v>
       </c>
       <c r="D5">
-        <v>0.6192801061974191</v>
+        <v>0.7454211916701649</v>
       </c>
       <c r="E5">
-        <v>0.9991217493748569</v>
+        <v>0.7454211916701649</v>
       </c>
       <c r="F5">
-        <v>0.9944787308125864</v>
+        <v>0.9266323852656143</v>
       </c>
       <c r="G5">
-        <v>0.6951985739839684</v>
+        <v>0.9266323852656143</v>
       </c>
       <c r="H5">
-        <v>0.9251059867396035</v>
+        <v>0.774884723330028</v>
       </c>
       <c r="I5">
-        <v>0.8731307857573206</v>
+        <v>1.355001710690947</v>
       </c>
       <c r="J5">
-        <v>0.6192801061974191</v>
+        <v>0.9874851007878516</v>
       </c>
       <c r="K5">
-        <v>0.9944787308125864</v>
+        <v>0.9266323852656143</v>
       </c>
       <c r="L5">
-        <v>0.9991217493748569</v>
+        <v>1.233938386829547</v>
       </c>
       <c r="M5">
-        <v>0.8092009277861381</v>
+        <v>0.9896797892498561</v>
       </c>
       <c r="N5">
-        <v>0.8092009277861381</v>
+        <v>0.9896797892498561</v>
       </c>
       <c r="O5">
-        <v>0.8478359474372933</v>
+        <v>0.9180814339432467</v>
       </c>
       <c r="P5">
-        <v>0.8709601954616208</v>
+        <v>0.9686639879217754</v>
       </c>
       <c r="Q5">
-        <v>0.8709601954616208</v>
+        <v>0.9686639879217754</v>
       </c>
       <c r="R5">
-        <v>0.9018398292993622</v>
+        <v>0.9581560872577352</v>
       </c>
       <c r="S5">
-        <v>0.9018398292993622</v>
+        <v>0.9581560872577352</v>
       </c>
       <c r="T5">
-        <v>0.8510526554776258</v>
+        <v>1.003893916429025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.411539595919041</v>
+        <v>1.861373218785611</v>
       </c>
       <c r="D6">
-        <v>1.789611489588995</v>
+        <v>0.4027792959725818</v>
       </c>
       <c r="E6">
-        <v>0.8195806161569131</v>
+        <v>0.4027792959725818</v>
       </c>
       <c r="F6">
-        <v>1.411539595919041</v>
+        <v>0.4348506071207253</v>
       </c>
       <c r="G6">
-        <v>0.9337978568030243</v>
+        <v>0.4348506071207253</v>
       </c>
       <c r="H6">
-        <v>0.4225844915764418</v>
+        <v>0.4140040415198828</v>
       </c>
       <c r="I6">
-        <v>0.8594090520211481</v>
+        <v>1.308626371820613</v>
       </c>
       <c r="J6">
-        <v>1.789611489588995</v>
+        <v>0.5544990891665755</v>
       </c>
       <c r="K6">
-        <v>1.411539595919041</v>
+        <v>0.4348506071207253</v>
       </c>
       <c r="L6">
-        <v>0.8195806161569131</v>
+        <v>1.861373218785611</v>
       </c>
       <c r="M6">
-        <v>1.304596052872954</v>
+        <v>1.132076257379096</v>
       </c>
       <c r="N6">
-        <v>1.304596052872954</v>
+        <v>1.132076257379096</v>
       </c>
       <c r="O6">
-        <v>1.01059219910745</v>
+        <v>0.8927188520926919</v>
       </c>
       <c r="P6">
-        <v>1.340243900554983</v>
+        <v>0.8996677072929726</v>
       </c>
       <c r="Q6">
-        <v>1.340243900554983</v>
+        <v>0.8996677072929726</v>
       </c>
       <c r="R6">
-        <v>1.358067824395998</v>
+        <v>0.7834634322499108</v>
       </c>
       <c r="S6">
-        <v>1.358067824395998</v>
+        <v>0.7834634322499108</v>
       </c>
       <c r="T6">
-        <v>1.039420517010927</v>
+        <v>0.8293554373976649</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.003667642808364</v>
+        <v>0.9857061755920503</v>
       </c>
       <c r="D7">
-        <v>0.9992340446463284</v>
+        <v>0.9615614082344962</v>
       </c>
       <c r="E7">
-        <v>1.00211630410438</v>
+        <v>0.9615614082344962</v>
       </c>
       <c r="F7">
-        <v>1.003667642808364</v>
+        <v>1.044422583537089</v>
       </c>
       <c r="G7">
-        <v>1.001241138171986</v>
+        <v>1.044422583537089</v>
       </c>
       <c r="H7">
-        <v>0.99799585380942</v>
+        <v>0.9560721459737525</v>
       </c>
       <c r="I7">
-        <v>0.9988069448159286</v>
+        <v>0.9707220534349087</v>
       </c>
       <c r="J7">
-        <v>0.9992340446463284</v>
+        <v>1.000316256542099</v>
       </c>
       <c r="K7">
-        <v>1.003667642808364</v>
+        <v>1.044422583537089</v>
       </c>
       <c r="L7">
-        <v>1.00211630410438</v>
+        <v>0.9857061755920503</v>
       </c>
       <c r="M7">
-        <v>1.000675174375354</v>
+        <v>0.9736337919132733</v>
       </c>
       <c r="N7">
-        <v>1.000675174375354</v>
+        <v>0.9736337919132733</v>
       </c>
       <c r="O7">
-        <v>0.9997820675200429</v>
+        <v>0.9677799099334331</v>
       </c>
       <c r="P7">
-        <v>1.001672663853024</v>
+        <v>0.9972300557878784</v>
       </c>
       <c r="Q7">
-        <v>1.001672663853024</v>
+        <v>0.9972300557878784</v>
       </c>
       <c r="R7">
-        <v>1.002171408591859</v>
+        <v>1.009028187725181</v>
       </c>
       <c r="S7">
-        <v>1.002171408591859</v>
+        <v>1.009028187725181</v>
       </c>
       <c r="T7">
-        <v>1.000510321392735</v>
+        <v>0.9864667705523992</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.015217704962765</v>
+        <v>0.9924101642594766</v>
       </c>
       <c r="D8">
-        <v>0.9924400756700534</v>
+        <v>1.000319665283988</v>
       </c>
       <c r="E8">
-        <v>1.002507699741748</v>
+        <v>1.000319665283988</v>
       </c>
       <c r="F8">
-        <v>1.015217704962765</v>
+        <v>1.022235747652223</v>
       </c>
       <c r="G8">
-        <v>0.9994254430496214</v>
+        <v>1.022235747652223</v>
       </c>
       <c r="H8">
-        <v>0.9952985499878194</v>
+        <v>0.9981719549974212</v>
       </c>
       <c r="I8">
-        <v>0.9991375993798132</v>
+        <v>0.9991074780891017</v>
       </c>
       <c r="J8">
-        <v>0.9924400756700534</v>
+        <v>1.000587706943871</v>
       </c>
       <c r="K8">
-        <v>1.015217704962765</v>
+        <v>1.022235747652223</v>
       </c>
       <c r="L8">
-        <v>1.002507699741748</v>
+        <v>0.9924101642594766</v>
       </c>
       <c r="M8">
-        <v>0.9974738877059006</v>
+        <v>0.9963649147717324</v>
       </c>
       <c r="N8">
-        <v>0.9974738877059006</v>
+        <v>0.9963649147717324</v>
       </c>
       <c r="O8">
-        <v>0.9967487751332068</v>
+        <v>0.9969672615136287</v>
       </c>
       <c r="P8">
-        <v>1.003388493458188</v>
+        <v>1.004988525731896</v>
       </c>
       <c r="Q8">
-        <v>1.003388493458188</v>
+        <v>1.004988525731896</v>
       </c>
       <c r="R8">
-        <v>1.006345796334333</v>
+        <v>1.009300331211977</v>
       </c>
       <c r="S8">
-        <v>1.006345796334333</v>
+        <v>1.009300331211977</v>
       </c>
       <c r="T8">
-        <v>1.000671178798637</v>
+        <v>1.002138786204347</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.062552636249771</v>
+        <v>0.9540881241053801</v>
       </c>
       <c r="D9">
-        <v>0.9930889611819138</v>
+        <v>0.8833470588205872</v>
       </c>
       <c r="E9">
-        <v>1.017033413325553</v>
+        <v>0.8833470588205872</v>
       </c>
       <c r="F9">
-        <v>1.062552636249771</v>
+        <v>1.097522422524745</v>
       </c>
       <c r="G9">
-        <v>1.013065535706044</v>
+        <v>1.097522422524745</v>
       </c>
       <c r="H9">
-        <v>0.9930936692391226</v>
+        <v>0.9090543681114364</v>
       </c>
       <c r="I9">
-        <v>0.9918019649946316</v>
+        <v>0.9505537298916452</v>
       </c>
       <c r="J9">
-        <v>0.9930889611819138</v>
+        <v>0.9847854886103488</v>
       </c>
       <c r="K9">
-        <v>1.062552636249771</v>
+        <v>1.097522422524745</v>
       </c>
       <c r="L9">
-        <v>1.017033413325553</v>
+        <v>0.9540881241053801</v>
       </c>
       <c r="M9">
-        <v>1.005061187253733</v>
+        <v>0.9187175914629837</v>
       </c>
       <c r="N9">
-        <v>1.005061187253733</v>
+        <v>0.9187175914629837</v>
       </c>
       <c r="O9">
-        <v>1.001072014582197</v>
+        <v>0.9154965170124679</v>
       </c>
       <c r="P9">
-        <v>1.024225003585746</v>
+        <v>0.978319201816904</v>
       </c>
       <c r="Q9">
-        <v>1.024225003585746</v>
+        <v>0.978319201816904</v>
       </c>
       <c r="R9">
-        <v>1.033806911751752</v>
+        <v>1.008120006993864</v>
       </c>
       <c r="S9">
-        <v>1.033806911751752</v>
+        <v>1.008120006993864</v>
       </c>
       <c r="T9">
-        <v>1.011772696782839</v>
+        <v>0.9632251986773571</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.074543995282749</v>
+        <v>1.905140278628114</v>
       </c>
       <c r="D10">
-        <v>0.9827206559784334</v>
+        <v>0.3898686561382471</v>
       </c>
       <c r="E10">
-        <v>1.009463378917367</v>
+        <v>0.3898686561382471</v>
       </c>
       <c r="F10">
-        <v>1.074543995282749</v>
+        <v>0.4241209566330847</v>
       </c>
       <c r="G10">
-        <v>1.013911826369526</v>
+        <v>0.4241209566330847</v>
       </c>
       <c r="H10">
-        <v>0.9826155931610463</v>
+        <v>0.4244384761912957</v>
       </c>
       <c r="I10">
-        <v>0.9970198950437998</v>
+        <v>1.318968696610348</v>
       </c>
       <c r="J10">
-        <v>0.9827206559784334</v>
+        <v>0.5338203554369967</v>
       </c>
       <c r="K10">
-        <v>1.074543995282749</v>
+        <v>0.4241209566330847</v>
       </c>
       <c r="L10">
-        <v>1.009463378917367</v>
+        <v>1.905140278628114</v>
       </c>
       <c r="M10">
-        <v>0.9960920174479</v>
+        <v>1.147504467383181</v>
       </c>
       <c r="N10">
-        <v>0.9960920174479</v>
+        <v>1.147504467383181</v>
       </c>
       <c r="O10">
-        <v>0.9915998760189488</v>
+        <v>0.906482470319219</v>
       </c>
       <c r="P10">
-        <v>1.022242676726183</v>
+        <v>0.906376630466482</v>
       </c>
       <c r="Q10">
-        <v>1.022242676726183</v>
+        <v>0.9063766304664821</v>
       </c>
       <c r="R10">
-        <v>1.035318006365324</v>
+        <v>0.7858127120081327</v>
       </c>
       <c r="S10">
-        <v>1.035318006365324</v>
+        <v>0.7858127120081327</v>
       </c>
       <c r="T10">
-        <v>1.010045890792153</v>
+        <v>0.8327262366063478</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.299474744863165</v>
+        <v>1.057043000884533</v>
       </c>
       <c r="D11">
-        <v>1.073930944309927</v>
+        <v>0.718894460452329</v>
       </c>
       <c r="E11">
-        <v>1.029046733070148</v>
+        <v>0.718894460452329</v>
       </c>
       <c r="F11">
-        <v>1.299474744863165</v>
+        <v>0.9524587636510651</v>
       </c>
       <c r="G11">
-        <v>0.9701192604429481</v>
+        <v>0.9524587636510651</v>
       </c>
       <c r="H11">
-        <v>1.0620795190162</v>
+        <v>0.8053877144018485</v>
       </c>
       <c r="I11">
-        <v>0.9443532156956592</v>
+        <v>1.584298685331343</v>
       </c>
       <c r="J11">
-        <v>1.073930944309927</v>
+        <v>1.027201277842301</v>
       </c>
       <c r="K11">
-        <v>1.299474744863165</v>
+        <v>0.9524587636510651</v>
       </c>
       <c r="L11">
-        <v>1.029046733070148</v>
+        <v>1.057043000884533</v>
       </c>
       <c r="M11">
-        <v>1.051488838690037</v>
+        <v>0.8879687306684307</v>
       </c>
       <c r="N11">
-        <v>1.051488838690037</v>
+        <v>0.8879687306684307</v>
       </c>
       <c r="O11">
-        <v>1.055019065465425</v>
+        <v>0.8604417252462366</v>
       </c>
       <c r="P11">
-        <v>1.134150807414413</v>
+        <v>0.9094654083293089</v>
       </c>
       <c r="Q11">
-        <v>1.134150807414413</v>
+        <v>0.9094654083293089</v>
       </c>
       <c r="R11">
-        <v>1.175481791776601</v>
+        <v>0.9202137471597479</v>
       </c>
       <c r="S11">
-        <v>1.175481791776601</v>
+        <v>0.9202137471597479</v>
       </c>
       <c r="T11">
-        <v>1.063167402899674</v>
+        <v>1.02421398376057</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.844244450859468</v>
+        <v>1.346899591557416</v>
       </c>
       <c r="D12">
-        <v>0.02839472598084424</v>
+        <v>0.8607438057808601</v>
       </c>
       <c r="E12">
-        <v>1.200527794721967</v>
+        <v>0.8607438057808601</v>
       </c>
       <c r="F12">
-        <v>0.844244450859468</v>
+        <v>0.7866782592047707</v>
       </c>
       <c r="G12">
-        <v>0.007220350187736585</v>
+        <v>0.7866782592047707</v>
       </c>
       <c r="H12">
-        <v>1.667427177532818</v>
+        <v>0.8128276654518983</v>
       </c>
       <c r="I12">
-        <v>1.469872051485181</v>
+        <v>1.386729306052503</v>
       </c>
       <c r="J12">
-        <v>0.02839472598084424</v>
+        <v>0.9327596904399375</v>
       </c>
       <c r="K12">
-        <v>0.844244450859468</v>
+        <v>0.7866782592047707</v>
       </c>
       <c r="L12">
-        <v>1.200527794721967</v>
+        <v>1.346899591557416</v>
       </c>
       <c r="M12">
-        <v>0.6144612603514055</v>
+        <v>1.103821698669138</v>
       </c>
       <c r="N12">
-        <v>0.6144612603514055</v>
+        <v>1.103821698669138</v>
       </c>
       <c r="O12">
-        <v>0.9654498994118761</v>
+        <v>1.006823687596725</v>
       </c>
       <c r="P12">
-        <v>0.6910556571874263</v>
+        <v>0.9981072188476823</v>
       </c>
       <c r="Q12">
-        <v>0.6910556571874263</v>
+        <v>0.9981072188476823</v>
       </c>
       <c r="R12">
-        <v>0.7293528556054367</v>
+        <v>0.9452499789369544</v>
       </c>
       <c r="S12">
-        <v>0.7293528556054367</v>
+        <v>0.9452499789369544</v>
       </c>
       <c r="T12">
-        <v>0.8696144251280024</v>
+        <v>1.021106386414564</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.098291033998245</v>
+        <v>0.9335712313902128</v>
       </c>
       <c r="D13">
-        <v>3.312680609107419</v>
+        <v>1.329122896001244</v>
       </c>
       <c r="E13">
-        <v>0.4933474806868863</v>
+        <v>1.329122896001244</v>
       </c>
       <c r="F13">
-        <v>1.098291033998245</v>
+        <v>0.9967916257202341</v>
       </c>
       <c r="G13">
-        <v>1.629499496735311</v>
+        <v>0.9967916257202341</v>
       </c>
       <c r="H13">
-        <v>0.6057433515298012</v>
+        <v>1.197692731223272</v>
       </c>
       <c r="I13">
-        <v>0.6647097133222071</v>
+        <v>0.6895765914076277</v>
       </c>
       <c r="J13">
-        <v>3.312680609107419</v>
+        <v>0.9057508427918158</v>
       </c>
       <c r="K13">
-        <v>1.098291033998245</v>
+        <v>0.9967916257202341</v>
       </c>
       <c r="L13">
-        <v>0.4933474806868863</v>
+        <v>0.9335712313902128</v>
       </c>
       <c r="M13">
-        <v>1.903014044897153</v>
+        <v>1.131347063695728</v>
       </c>
       <c r="N13">
-        <v>1.903014044897153</v>
+        <v>1.131347063695728</v>
       </c>
       <c r="O13">
-        <v>1.470590480441369</v>
+        <v>1.15346228620491</v>
       </c>
       <c r="P13">
-        <v>1.634773041264183</v>
+        <v>1.08649525103723</v>
       </c>
       <c r="Q13">
-        <v>1.634773041264184</v>
+        <v>1.08649525103723</v>
       </c>
       <c r="R13">
-        <v>1.500652539447699</v>
+        <v>1.064069344707981</v>
       </c>
       <c r="S13">
-        <v>1.500652539447699</v>
+        <v>1.064069344707981</v>
       </c>
       <c r="T13">
-        <v>1.300711947563312</v>
+        <v>1.008750986422401</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.919705994951049</v>
+        <v>2.516928000000004</v>
       </c>
       <c r="D14">
-        <v>3.419782102209528</v>
+        <v>0.001634488200000002</v>
       </c>
       <c r="E14">
-        <v>0.1746352361111098</v>
+        <v>0.001634488200000002</v>
       </c>
       <c r="F14">
-        <v>1.919705994951049</v>
+        <v>0.0034725934</v>
       </c>
       <c r="G14">
-        <v>0.1456247915945232</v>
+        <v>0.0034725934</v>
       </c>
       <c r="H14">
-        <v>1.834740474472013</v>
+        <v>0.002385847899999998</v>
       </c>
       <c r="I14">
-        <v>1.059089774778224</v>
+        <v>1.228067</v>
       </c>
       <c r="J14">
-        <v>3.419782102209528</v>
+        <v>0.09466050899999992</v>
       </c>
       <c r="K14">
-        <v>1.919705994951049</v>
+        <v>0.0034725934</v>
       </c>
       <c r="L14">
-        <v>0.1746352361111098</v>
+        <v>2.516928000000004</v>
       </c>
       <c r="M14">
-        <v>1.797208669160319</v>
+        <v>1.259281244100002</v>
       </c>
       <c r="N14">
-        <v>1.797208669160319</v>
+        <v>1.259281244100002</v>
       </c>
       <c r="O14">
-        <v>1.809719270930884</v>
+        <v>0.8403161120333348</v>
       </c>
       <c r="P14">
-        <v>1.838041111090562</v>
+        <v>0.8406783605333349</v>
       </c>
       <c r="Q14">
-        <v>1.838041111090562</v>
+        <v>0.8406783605333348</v>
       </c>
       <c r="R14">
-        <v>1.858457332055684</v>
+        <v>0.6313769187500011</v>
       </c>
       <c r="S14">
-        <v>1.858457332055684</v>
+        <v>0.6313769187500011</v>
       </c>
       <c r="T14">
-        <v>1.425596395686075</v>
+        <v>0.6411914064166674</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.02078027073299304</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="D15">
-        <v>0.002627809240744217</v>
+        <v>0.0030969418</v>
       </c>
       <c r="E15">
-        <v>1.232545222439272</v>
+        <v>0.0030969418</v>
       </c>
       <c r="F15">
-        <v>0.02078027073299304</v>
+        <v>30.381976</v>
       </c>
       <c r="G15">
-        <v>1.369476199899433</v>
+        <v>30.381976</v>
       </c>
       <c r="H15">
-        <v>1.688032319148561</v>
+        <v>0.0025420957</v>
       </c>
       <c r="I15">
-        <v>0.9313387374426677</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="J15">
-        <v>0.002627809240744217</v>
+        <v>0.0037430372</v>
       </c>
       <c r="K15">
-        <v>0.02078027073299304</v>
+        <v>30.381976</v>
       </c>
       <c r="L15">
-        <v>1.232545222439272</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M15">
-        <v>0.6175865158400079</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N15">
-        <v>0.6175865158400079</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O15">
-        <v>0.9744017836095255</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P15">
-        <v>0.4186511008043363</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q15">
-        <v>0.4186511008043363</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R15">
-        <v>0.3191833932865005</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S15">
-        <v>0.3191833932865005</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T15">
-        <v>0.8741334264839452</v>
+        <v>5.0645560555</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.988924794265897</v>
+        <v>0.41386905</v>
       </c>
       <c r="D16">
-        <v>1.001408900416045</v>
+        <v>0.0022977741</v>
       </c>
       <c r="E16">
-        <v>1.008975085568029</v>
+        <v>0.0022977741</v>
       </c>
       <c r="F16">
-        <v>0.988924794265897</v>
+        <v>0.0063529765</v>
       </c>
       <c r="G16">
-        <v>1.005531437017994</v>
+        <v>0.0063529765</v>
       </c>
       <c r="H16">
-        <v>1.001140825011324</v>
+        <v>-0.0019492098</v>
       </c>
       <c r="I16">
-        <v>0.9983746269812632</v>
+        <v>7.5462939</v>
       </c>
       <c r="J16">
-        <v>1.001408900416045</v>
+        <v>0.01216444</v>
       </c>
       <c r="K16">
-        <v>0.988924794265897</v>
+        <v>0.0063529765</v>
       </c>
       <c r="L16">
-        <v>1.008975085568029</v>
+        <v>0.41386905</v>
       </c>
       <c r="M16">
-        <v>1.005191992992037</v>
+        <v>0.20808341205</v>
       </c>
       <c r="N16">
-        <v>1.005191992992037</v>
+        <v>0.20808341205</v>
       </c>
       <c r="O16">
-        <v>1.003841603665133</v>
+        <v>0.1380725381</v>
       </c>
       <c r="P16">
-        <v>0.9997695934166573</v>
+        <v>0.1408399335333333</v>
       </c>
       <c r="Q16">
-        <v>0.9997695934166572</v>
+        <v>0.1408399335333333</v>
       </c>
       <c r="R16">
-        <v>0.9970583936289671</v>
+        <v>0.107218194275</v>
       </c>
       <c r="S16">
-        <v>0.9970583936289671</v>
+        <v>0.107218194275</v>
       </c>
       <c r="T16">
-        <v>1.000725944876759</v>
+        <v>1.329838155133333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.022235747652222</v>
+        <v>0.00029408995</v>
       </c>
       <c r="D17">
-        <v>1.000319665283988</v>
+        <v>0.017146586</v>
       </c>
       <c r="E17">
-        <v>0.9924101642594778</v>
+        <v>0.017146586</v>
       </c>
       <c r="F17">
-        <v>1.022235747652222</v>
+        <v>0.10516769</v>
       </c>
       <c r="G17">
-        <v>0.9991074780891023</v>
+        <v>0.10516769</v>
       </c>
       <c r="H17">
-        <v>0.9981719549974207</v>
+        <v>0.10673748</v>
       </c>
       <c r="I17">
-        <v>1.000587706943872</v>
+        <v>-0.0029833669</v>
       </c>
       <c r="J17">
-        <v>1.000319665283988</v>
+        <v>0.23952287</v>
       </c>
       <c r="K17">
-        <v>1.022235747652222</v>
+        <v>0.10516769</v>
       </c>
       <c r="L17">
-        <v>0.9924101642594778</v>
+        <v>0.00029408995</v>
       </c>
       <c r="M17">
-        <v>0.9963649147717329</v>
+        <v>0.008720337974999999</v>
       </c>
       <c r="N17">
-        <v>0.9963649147717329</v>
+        <v>0.008720337974999999</v>
       </c>
       <c r="O17">
-        <v>0.9969672615136288</v>
+        <v>0.04139271865</v>
       </c>
       <c r="P17">
-        <v>1.004988525731896</v>
+        <v>0.04086945531666666</v>
       </c>
       <c r="Q17">
-        <v>1.004988525731896</v>
+        <v>0.04086945531666667</v>
       </c>
       <c r="R17">
-        <v>1.009300331211977</v>
+        <v>0.0569440139875</v>
       </c>
       <c r="S17">
-        <v>1.009300331211977</v>
+        <v>0.0569440139875</v>
       </c>
       <c r="T17">
-        <v>1.002138786204347</v>
+        <v>0.07764755817500001</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.111972894212944</v>
+        <v>0.7497518671079453</v>
       </c>
       <c r="D18">
-        <v>0.9909691756832409</v>
+        <v>-0.0001733043334246576</v>
       </c>
       <c r="E18">
-        <v>1.008637648358219</v>
+        <v>-0.0001733043334246576</v>
       </c>
       <c r="F18">
-        <v>1.111972894212944</v>
+        <v>2.427978069021918</v>
       </c>
       <c r="G18">
-        <v>1.018284271939524</v>
+        <v>2.427978069021918</v>
       </c>
       <c r="H18">
-        <v>0.9914177580555782</v>
+        <v>0.01343725088958904</v>
       </c>
       <c r="I18">
-        <v>1.004392640781793</v>
+        <v>0.4420116470917808</v>
       </c>
       <c r="J18">
-        <v>0.9909691756832409</v>
+        <v>1.013467748432877</v>
       </c>
       <c r="K18">
-        <v>1.111972894212944</v>
+        <v>2.427978069021918</v>
       </c>
       <c r="L18">
-        <v>1.008637648358219</v>
+        <v>0.7497518671079453</v>
       </c>
       <c r="M18">
-        <v>0.99980341202073</v>
+        <v>0.3747892813872603</v>
       </c>
       <c r="N18">
-        <v>0.99980341202073</v>
+        <v>0.3747892813872603</v>
       </c>
       <c r="O18">
-        <v>0.997008194032346</v>
+        <v>0.2543386045547032</v>
       </c>
       <c r="P18">
-        <v>1.037193239418135</v>
+        <v>1.059185543932146</v>
       </c>
       <c r="Q18">
-        <v>1.037193239418135</v>
+        <v>1.059185543932146</v>
       </c>
       <c r="R18">
-        <v>1.055888153116837</v>
+        <v>1.401383675204589</v>
       </c>
       <c r="S18">
-        <v>1.055888153116837</v>
+        <v>1.401383675204589</v>
       </c>
       <c r="T18">
-        <v>1.020945731505217</v>
+        <v>0.7744122130351143</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9605819309588933</v>
+        <v>1.782396051523685</v>
       </c>
       <c r="D19">
-        <v>0.6669968676775767</v>
+        <v>3.407042811656841</v>
       </c>
       <c r="E19">
-        <v>1.157169476054419</v>
+        <v>3.407042811656841</v>
       </c>
       <c r="F19">
-        <v>0.9605819309588933</v>
+        <v>1.704754748814842</v>
       </c>
       <c r="G19">
-        <v>0.9750234546700978</v>
+        <v>1.704754748814842</v>
       </c>
       <c r="H19">
-        <v>1.074046226701863</v>
+        <v>0.03204713580263158</v>
       </c>
       <c r="I19">
-        <v>0.9302875081231422</v>
+        <v>5.340428626394736</v>
       </c>
       <c r="J19">
-        <v>0.6669968676775767</v>
+        <v>0.1297465259352632</v>
       </c>
       <c r="K19">
-        <v>0.9605819309588933</v>
+        <v>1.704754748814842</v>
       </c>
       <c r="L19">
-        <v>1.157169476054419</v>
+        <v>1.782396051523685</v>
       </c>
       <c r="M19">
-        <v>0.9120831718659979</v>
+        <v>2.594719431590263</v>
       </c>
       <c r="N19">
-        <v>0.9120831718659979</v>
+        <v>2.594719431590263</v>
       </c>
       <c r="O19">
-        <v>0.9660708568112861</v>
+        <v>1.740495332994386</v>
       </c>
       <c r="P19">
-        <v>0.928249424896963</v>
+        <v>2.298064537331789</v>
       </c>
       <c r="Q19">
-        <v>0.928249424896963</v>
+        <v>2.298064537331789</v>
       </c>
       <c r="R19">
-        <v>0.9363325514124456</v>
+        <v>2.149737090202553</v>
       </c>
       <c r="S19">
-        <v>0.9363325514124456</v>
+        <v>2.149737090202553</v>
       </c>
       <c r="T19">
-        <v>0.9606842440309987</v>
+        <v>2.066069316688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.297729018127369</v>
+      </c>
+      <c r="D20">
+        <v>0.0007504029778947371</v>
+      </c>
+      <c r="E20">
+        <v>0.0007504029778947371</v>
+      </c>
+      <c r="F20">
+        <v>3.390952179156842</v>
+      </c>
+      <c r="G20">
+        <v>3.390952179156842</v>
+      </c>
+      <c r="H20">
+        <v>0.002099502468947368</v>
+      </c>
+      <c r="I20">
+        <v>0.102149162568421</v>
+      </c>
+      <c r="J20">
+        <v>1.292535520063158</v>
+      </c>
+      <c r="K20">
+        <v>3.390952179156842</v>
+      </c>
+      <c r="L20">
+        <v>1.297729018127369</v>
+      </c>
+      <c r="M20">
+        <v>0.6492397105526317</v>
+      </c>
+      <c r="N20">
+        <v>0.6492397105526317</v>
+      </c>
+      <c r="O20">
+        <v>0.4335263078580703</v>
+      </c>
+      <c r="P20">
+        <v>1.563143866754035</v>
+      </c>
+      <c r="Q20">
+        <v>1.563143866754035</v>
+      </c>
+      <c r="R20">
+        <v>2.020095944854737</v>
+      </c>
+      <c r="S20">
+        <v>2.020095944854737</v>
+      </c>
+      <c r="T20">
+        <v>1.014369297560439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.1746352361111097</v>
+      </c>
+      <c r="D21">
+        <v>3.41978210220953</v>
+      </c>
+      <c r="E21">
+        <v>3.41978210220953</v>
+      </c>
+      <c r="F21">
+        <v>1.919705994951049</v>
+      </c>
+      <c r="G21">
+        <v>1.919705994951049</v>
+      </c>
+      <c r="H21">
+        <v>1.834740474472013</v>
+      </c>
+      <c r="I21">
+        <v>0.1456247915945228</v>
+      </c>
+      <c r="J21">
+        <v>1.059089774778224</v>
+      </c>
+      <c r="K21">
+        <v>1.919705994951049</v>
+      </c>
+      <c r="L21">
+        <v>0.1746352361111097</v>
+      </c>
+      <c r="M21">
+        <v>1.79720866916032</v>
+      </c>
+      <c r="N21">
+        <v>1.79720866916032</v>
+      </c>
+      <c r="O21">
+        <v>1.809719270930884</v>
+      </c>
+      <c r="P21">
+        <v>1.838041111090563</v>
+      </c>
+      <c r="Q21">
+        <v>1.838041111090563</v>
+      </c>
+      <c r="R21">
+        <v>1.858457332055684</v>
+      </c>
+      <c r="S21">
+        <v>1.858457332055684</v>
+      </c>
+      <c r="T21">
+        <v>1.425596395686075</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.232545222439271</v>
+      </c>
+      <c r="D22">
+        <v>0.002627809240744217</v>
+      </c>
+      <c r="E22">
+        <v>0.002627809240744217</v>
+      </c>
+      <c r="F22">
+        <v>0.02078027073299304</v>
+      </c>
+      <c r="G22">
+        <v>0.02078027073299304</v>
+      </c>
+      <c r="H22">
+        <v>1.68803231914856</v>
+      </c>
+      <c r="I22">
+        <v>1.369476199899434</v>
+      </c>
+      <c r="J22">
+        <v>0.9313387374426676</v>
+      </c>
+      <c r="K22">
+        <v>0.02078027073299304</v>
+      </c>
+      <c r="L22">
+        <v>1.232545222439271</v>
+      </c>
+      <c r="M22">
+        <v>0.6175865158400077</v>
+      </c>
+      <c r="N22">
+        <v>0.6175865158400077</v>
+      </c>
+      <c r="O22">
+        <v>0.9744017836095252</v>
+      </c>
+      <c r="P22">
+        <v>0.4186511008043361</v>
+      </c>
+      <c r="Q22">
+        <v>0.4186511008043362</v>
+      </c>
+      <c r="R22">
+        <v>0.3191833932865004</v>
+      </c>
+      <c r="S22">
+        <v>0.3191833932865004</v>
+      </c>
+      <c r="T22">
+        <v>0.874133426483945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.200527794721968</v>
+      </c>
+      <c r="D23">
+        <v>0.02839472598084422</v>
+      </c>
+      <c r="E23">
+        <v>0.02839472598084422</v>
+      </c>
+      <c r="F23">
+        <v>0.8442444508594681</v>
+      </c>
+      <c r="G23">
+        <v>0.8442444508594681</v>
+      </c>
+      <c r="H23">
+        <v>1.667427177532818</v>
+      </c>
+      <c r="I23">
+        <v>0.007220350187736538</v>
+      </c>
+      <c r="J23">
+        <v>1.46987205148518</v>
+      </c>
+      <c r="K23">
+        <v>0.8442444508594681</v>
+      </c>
+      <c r="L23">
+        <v>1.200527794721968</v>
+      </c>
+      <c r="M23">
+        <v>0.6144612603514059</v>
+      </c>
+      <c r="N23">
+        <v>0.6144612603514059</v>
+      </c>
+      <c r="O23">
+        <v>0.9654498994118766</v>
+      </c>
+      <c r="P23">
+        <v>0.6910556571874267</v>
+      </c>
+      <c r="Q23">
+        <v>0.6910556571874267</v>
+      </c>
+      <c r="R23">
+        <v>0.7293528556054371</v>
+      </c>
+      <c r="S23">
+        <v>0.7293528556054371</v>
+      </c>
+      <c r="T23">
+        <v>0.8696144251280025</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.4933474806868863</v>
+      </c>
+      <c r="D24">
+        <v>3.312680609107422</v>
+      </c>
+      <c r="E24">
+        <v>3.312680609107422</v>
+      </c>
+      <c r="F24">
+        <v>1.098291033998245</v>
+      </c>
+      <c r="G24">
+        <v>1.098291033998245</v>
+      </c>
+      <c r="H24">
+        <v>0.6057433515298005</v>
+      </c>
+      <c r="I24">
+        <v>1.629499496735312</v>
+      </c>
+      <c r="J24">
+        <v>0.6647097133222074</v>
+      </c>
+      <c r="K24">
+        <v>1.098291033998245</v>
+      </c>
+      <c r="L24">
+        <v>0.4933474806868863</v>
+      </c>
+      <c r="M24">
+        <v>1.903014044897154</v>
+      </c>
+      <c r="N24">
+        <v>1.903014044897154</v>
+      </c>
+      <c r="O24">
+        <v>1.47059048044137</v>
+      </c>
+      <c r="P24">
+        <v>1.634773041264184</v>
+      </c>
+      <c r="Q24">
+        <v>1.634773041264184</v>
+      </c>
+      <c r="R24">
+        <v>1.500652539447699</v>
+      </c>
+      <c r="S24">
+        <v>1.500652539447699</v>
+      </c>
+      <c r="T24">
+        <v>1.300711947563312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.03829527384742094</v>
+      </c>
+      <c r="D25">
+        <v>0.0003570773304294618</v>
+      </c>
+      <c r="E25">
+        <v>0.0003570773304294618</v>
+      </c>
+      <c r="F25">
+        <v>3.552846995791232</v>
+      </c>
+      <c r="G25">
+        <v>3.552846995791232</v>
+      </c>
+      <c r="H25">
+        <v>0.7087197802050512</v>
+      </c>
+      <c r="I25">
+        <v>-0.0001626144265404667</v>
+      </c>
+      <c r="J25">
+        <v>1.29605829636931</v>
+      </c>
+      <c r="K25">
+        <v>3.552846995791232</v>
+      </c>
+      <c r="L25">
+        <v>0.03829527384742094</v>
+      </c>
+      <c r="M25">
+        <v>0.0193261755889252</v>
+      </c>
+      <c r="N25">
+        <v>0.0193261755889252</v>
+      </c>
+      <c r="O25">
+        <v>0.2491240437943005</v>
+      </c>
+      <c r="P25">
+        <v>1.197166448989694</v>
+      </c>
+      <c r="Q25">
+        <v>1.197166448989694</v>
+      </c>
+      <c r="R25">
+        <v>1.786086585690079</v>
+      </c>
+      <c r="S25">
+        <v>1.786086585690079</v>
+      </c>
+      <c r="T25">
+        <v>0.9326858015194839</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>2.15177690109503</v>
+      </c>
+      <c r="D26">
+        <v>0.2236415219262789</v>
+      </c>
+      <c r="E26">
+        <v>0.2236415219262789</v>
+      </c>
+      <c r="F26">
+        <v>0.002114408865913423</v>
+      </c>
+      <c r="G26">
+        <v>0.002114408865913423</v>
+      </c>
+      <c r="H26">
+        <v>0.393832063501361</v>
+      </c>
+      <c r="I26">
+        <v>0.3882538665739836</v>
+      </c>
+      <c r="J26">
+        <v>1.117268478500608</v>
+      </c>
+      <c r="K26">
+        <v>0.002114408865913423</v>
+      </c>
+      <c r="L26">
+        <v>2.15177690109503</v>
+      </c>
+      <c r="M26">
+        <v>1.187709211510654</v>
+      </c>
+      <c r="N26">
+        <v>1.187709211510654</v>
+      </c>
+      <c r="O26">
+        <v>0.9230834955075564</v>
+      </c>
+      <c r="P26">
+        <v>0.7925109439624073</v>
+      </c>
+      <c r="Q26">
+        <v>0.7925109439624073</v>
+      </c>
+      <c r="R26">
+        <v>0.5949118101882838</v>
+      </c>
+      <c r="S26">
+        <v>0.5949118101882838</v>
+      </c>
+      <c r="T26">
+        <v>0.7128145400771957</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.408981749626427</v>
+      </c>
+      <c r="D27">
+        <v>0.1986131887835528</v>
+      </c>
+      <c r="E27">
+        <v>0.1986131887835528</v>
+      </c>
+      <c r="F27">
+        <v>0.8918557873615087</v>
+      </c>
+      <c r="G27">
+        <v>0.8918557873615087</v>
+      </c>
+      <c r="H27">
+        <v>0.6001301972786812</v>
+      </c>
+      <c r="I27">
+        <v>0.1424176112472805</v>
+      </c>
+      <c r="J27">
+        <v>0.9466788117033434</v>
+      </c>
+      <c r="K27">
+        <v>0.8918557873615087</v>
+      </c>
+      <c r="L27">
+        <v>1.408981749626427</v>
+      </c>
+      <c r="M27">
+        <v>0.8037974692049901</v>
+      </c>
+      <c r="N27">
+        <v>0.8037974692049901</v>
+      </c>
+      <c r="O27">
+        <v>0.735908378562887</v>
+      </c>
+      <c r="P27">
+        <v>0.8331502419238296</v>
+      </c>
+      <c r="Q27">
+        <v>0.8331502419238296</v>
+      </c>
+      <c r="R27">
+        <v>0.8478266282832494</v>
+      </c>
+      <c r="S27">
+        <v>0.8478266282832494</v>
+      </c>
+      <c r="T27">
+        <v>0.6981128910001323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.232552382753618</v>
+      </c>
+      <c r="D28">
+        <v>0.7579471914394138</v>
+      </c>
+      <c r="E28">
+        <v>0.7579471914394138</v>
+      </c>
+      <c r="F28">
+        <v>1.313791119586462</v>
+      </c>
+      <c r="G28">
+        <v>1.313791119586462</v>
+      </c>
+      <c r="H28">
+        <v>0.7407978461933387</v>
+      </c>
+      <c r="I28">
+        <v>0.1538761521788974</v>
+      </c>
+      <c r="J28">
+        <v>1.251089848587025</v>
+      </c>
+      <c r="K28">
+        <v>1.313791119586462</v>
+      </c>
+      <c r="L28">
+        <v>1.232552382753618</v>
+      </c>
+      <c r="M28">
+        <v>0.9952497870965157</v>
+      </c>
+      <c r="N28">
+        <v>0.9952497870965157</v>
+      </c>
+      <c r="O28">
+        <v>0.9104324734621233</v>
+      </c>
+      <c r="P28">
+        <v>1.101430231259831</v>
+      </c>
+      <c r="Q28">
+        <v>1.101430231259831</v>
+      </c>
+      <c r="R28">
+        <v>1.154520453341489</v>
+      </c>
+      <c r="S28">
+        <v>1.154520453341489</v>
+      </c>
+      <c r="T28">
+        <v>0.9083424234564591</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.8364776210895906</v>
+      </c>
+      <c r="D29">
+        <v>1.705368568503782</v>
+      </c>
+      <c r="E29">
+        <v>1.705368568503782</v>
+      </c>
+      <c r="F29">
+        <v>2.95008163460593</v>
+      </c>
+      <c r="G29">
+        <v>2.95008163460593</v>
+      </c>
+      <c r="H29">
+        <v>1.489114897479306</v>
+      </c>
+      <c r="I29">
+        <v>0.1823117770501157</v>
+      </c>
+      <c r="J29">
+        <v>0.5057787625478063</v>
+      </c>
+      <c r="K29">
+        <v>2.95008163460593</v>
+      </c>
+      <c r="L29">
+        <v>0.8364776210895906</v>
+      </c>
+      <c r="M29">
+        <v>1.270923094796686</v>
+      </c>
+      <c r="N29">
+        <v>1.270923094796686</v>
+      </c>
+      <c r="O29">
+        <v>1.343653695690893</v>
+      </c>
+      <c r="P29">
+        <v>1.830642608066434</v>
+      </c>
+      <c r="Q29">
+        <v>1.830642608066434</v>
+      </c>
+      <c r="R29">
+        <v>2.110502364701309</v>
+      </c>
+      <c r="S29">
+        <v>2.110502364701309</v>
+      </c>
+      <c r="T29">
+        <v>1.278188876879422</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.116401295314435</v>
+        <v>1.216722602658349</v>
       </c>
       <c r="D4">
-        <v>0.847004868721963</v>
+        <v>0.7965150409393728</v>
       </c>
       <c r="E4">
-        <v>0.847004868721963</v>
+        <v>0.7965150409393728</v>
       </c>
       <c r="F4">
-        <v>0.89715071011495</v>
+        <v>0.8445237732028114</v>
       </c>
       <c r="G4">
-        <v>0.89715071011495</v>
+        <v>0.8445237732028114</v>
       </c>
       <c r="H4">
-        <v>0.8048565004550902</v>
+        <v>0.8276502630463403</v>
       </c>
       <c r="I4">
-        <v>1.899374625469813</v>
+        <v>1.404298928318148</v>
       </c>
       <c r="J4">
-        <v>0.9791338729509627</v>
+        <v>1.004397384289178</v>
       </c>
       <c r="K4">
-        <v>0.89715071011495</v>
+        <v>0.8445237732028114</v>
       </c>
       <c r="L4">
-        <v>1.116401295314435</v>
+        <v>1.216722602658349</v>
       </c>
       <c r="M4">
-        <v>0.9817030820181989</v>
+        <v>1.006618821798861</v>
       </c>
       <c r="N4">
-        <v>0.9817030820181989</v>
+        <v>1.006618821798861</v>
       </c>
       <c r="O4">
-        <v>0.9227542214971627</v>
+        <v>0.9469626355480205</v>
       </c>
       <c r="P4">
-        <v>0.9535189580504492</v>
+        <v>0.9525871389335109</v>
       </c>
       <c r="Q4">
-        <v>0.9535189580504492</v>
+        <v>0.9525871389335109</v>
       </c>
       <c r="R4">
-        <v>0.9394268960665744</v>
+        <v>0.925571297500836</v>
       </c>
       <c r="S4">
-        <v>0.9394268960665744</v>
+        <v>0.925571297500836</v>
       </c>
       <c r="T4">
-        <v>1.090653645504536</v>
+        <v>1.015684665409033</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.233938386829547</v>
+        <v>1.266896308884938</v>
       </c>
       <c r="D5">
-        <v>0.7454211916701649</v>
+        <v>0.0008677191756345288</v>
       </c>
       <c r="E5">
-        <v>0.7454211916701649</v>
+        <v>0.0008677191756345288</v>
       </c>
       <c r="F5">
-        <v>0.9266323852656143</v>
+        <v>2.995904087481815</v>
       </c>
       <c r="G5">
-        <v>0.9266323852656143</v>
+        <v>2.995904087481815</v>
       </c>
       <c r="H5">
-        <v>0.774884723330028</v>
+        <v>0.00218331654402714</v>
       </c>
       <c r="I5">
-        <v>1.355001710690947</v>
+        <v>0.03040335315894161</v>
       </c>
       <c r="J5">
-        <v>0.9874851007878516</v>
+        <v>1.410864304955304</v>
       </c>
       <c r="K5">
-        <v>0.9266323852656143</v>
+        <v>2.995904087481815</v>
       </c>
       <c r="L5">
-        <v>1.233938386829547</v>
+        <v>1.266896308884938</v>
       </c>
       <c r="M5">
-        <v>0.9896797892498561</v>
+        <v>0.6338820140302864</v>
       </c>
       <c r="N5">
-        <v>0.9896797892498561</v>
+        <v>0.6338820140302864</v>
       </c>
       <c r="O5">
-        <v>0.9180814339432467</v>
+        <v>0.4233157815348667</v>
       </c>
       <c r="P5">
-        <v>0.9686639879217754</v>
+        <v>1.421222705180796</v>
       </c>
       <c r="Q5">
-        <v>0.9686639879217754</v>
+        <v>1.421222705180796</v>
       </c>
       <c r="R5">
-        <v>0.9581560872577352</v>
+        <v>1.814893050756051</v>
       </c>
       <c r="S5">
-        <v>0.9581560872577352</v>
+        <v>1.814893050756051</v>
       </c>
       <c r="T5">
-        <v>1.003893916429025</v>
+        <v>0.9511865150334436</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.861373218785611</v>
+        <v>1.116401295314435</v>
       </c>
       <c r="D6">
-        <v>0.4027792959725818</v>
+        <v>0.847004868721963</v>
       </c>
       <c r="E6">
-        <v>0.4027792959725818</v>
+        <v>0.847004868721963</v>
       </c>
       <c r="F6">
-        <v>0.4348506071207253</v>
+        <v>0.89715071011495</v>
       </c>
       <c r="G6">
-        <v>0.4348506071207253</v>
+        <v>0.89715071011495</v>
       </c>
       <c r="H6">
-        <v>0.4140040415198828</v>
+        <v>0.8048565004550902</v>
       </c>
       <c r="I6">
-        <v>1.308626371820613</v>
+        <v>1.899374625469813</v>
       </c>
       <c r="J6">
-        <v>0.5544990891665755</v>
+        <v>0.9791338729509627</v>
       </c>
       <c r="K6">
-        <v>0.4348506071207253</v>
+        <v>0.89715071011495</v>
       </c>
       <c r="L6">
-        <v>1.861373218785611</v>
+        <v>1.116401295314435</v>
       </c>
       <c r="M6">
-        <v>1.132076257379096</v>
+        <v>0.9817030820181989</v>
       </c>
       <c r="N6">
-        <v>1.132076257379096</v>
+        <v>0.9817030820181989</v>
       </c>
       <c r="O6">
-        <v>0.8927188520926919</v>
+        <v>0.9227542214971627</v>
       </c>
       <c r="P6">
-        <v>0.8996677072929726</v>
+        <v>0.9535189580504492</v>
       </c>
       <c r="Q6">
-        <v>0.8996677072929726</v>
+        <v>0.9535189580504492</v>
       </c>
       <c r="R6">
-        <v>0.7834634322499108</v>
+        <v>0.9394268960665744</v>
       </c>
       <c r="S6">
-        <v>0.7834634322499108</v>
+        <v>0.9394268960665744</v>
       </c>
       <c r="T6">
-        <v>0.8293554373976649</v>
+        <v>1.090653645504536</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9857061755920503</v>
+        <v>1.233938386829547</v>
       </c>
       <c r="D7">
-        <v>0.9615614082344962</v>
+        <v>0.7454211916701649</v>
       </c>
       <c r="E7">
-        <v>0.9615614082344962</v>
+        <v>0.7454211916701649</v>
       </c>
       <c r="F7">
-        <v>1.044422583537089</v>
+        <v>0.9266323852656143</v>
       </c>
       <c r="G7">
-        <v>1.044422583537089</v>
+        <v>0.9266323852656143</v>
       </c>
       <c r="H7">
-        <v>0.9560721459737525</v>
+        <v>0.774884723330028</v>
       </c>
       <c r="I7">
-        <v>0.9707220534349087</v>
+        <v>1.355001710690947</v>
       </c>
       <c r="J7">
-        <v>1.000316256542099</v>
+        <v>0.9874851007878516</v>
       </c>
       <c r="K7">
-        <v>1.044422583537089</v>
+        <v>0.9266323852656143</v>
       </c>
       <c r="L7">
-        <v>0.9857061755920503</v>
+        <v>1.233938386829547</v>
       </c>
       <c r="M7">
-        <v>0.9736337919132733</v>
+        <v>0.9896797892498561</v>
       </c>
       <c r="N7">
-        <v>0.9736337919132733</v>
+        <v>0.9896797892498561</v>
       </c>
       <c r="O7">
-        <v>0.9677799099334331</v>
+        <v>0.9180814339432467</v>
       </c>
       <c r="P7">
-        <v>0.9972300557878784</v>
+        <v>0.9686639879217754</v>
       </c>
       <c r="Q7">
-        <v>0.9972300557878784</v>
+        <v>0.9686639879217754</v>
       </c>
       <c r="R7">
-        <v>1.009028187725181</v>
+        <v>0.9581560872577352</v>
       </c>
       <c r="S7">
-        <v>1.009028187725181</v>
+        <v>0.9581560872577352</v>
       </c>
       <c r="T7">
-        <v>0.9864667705523992</v>
+        <v>1.003893916429025</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9924101642594766</v>
+        <v>1.861373218785611</v>
       </c>
       <c r="D8">
-        <v>1.000319665283988</v>
+        <v>0.4027792959725818</v>
       </c>
       <c r="E8">
-        <v>1.000319665283988</v>
+        <v>0.4027792959725818</v>
       </c>
       <c r="F8">
-        <v>1.022235747652223</v>
+        <v>0.4348506071207253</v>
       </c>
       <c r="G8">
-        <v>1.022235747652223</v>
+        <v>0.4348506071207253</v>
       </c>
       <c r="H8">
-        <v>0.9981719549974212</v>
+        <v>0.4140040415198828</v>
       </c>
       <c r="I8">
-        <v>0.9991074780891017</v>
+        <v>1.308626371820613</v>
       </c>
       <c r="J8">
-        <v>1.000587706943871</v>
+        <v>0.5544990891665755</v>
       </c>
       <c r="K8">
-        <v>1.022235747652223</v>
+        <v>0.4348506071207253</v>
       </c>
       <c r="L8">
-        <v>0.9924101642594766</v>
+        <v>1.861373218785611</v>
       </c>
       <c r="M8">
-        <v>0.9963649147717324</v>
+        <v>1.132076257379096</v>
       </c>
       <c r="N8">
-        <v>0.9963649147717324</v>
+        <v>1.132076257379096</v>
       </c>
       <c r="O8">
-        <v>0.9969672615136287</v>
+        <v>0.8927188520926919</v>
       </c>
       <c r="P8">
-        <v>1.004988525731896</v>
+        <v>0.8996677072929726</v>
       </c>
       <c r="Q8">
-        <v>1.004988525731896</v>
+        <v>0.8996677072929726</v>
       </c>
       <c r="R8">
-        <v>1.009300331211977</v>
+        <v>0.7834634322499108</v>
       </c>
       <c r="S8">
-        <v>1.009300331211977</v>
+        <v>0.7834634322499108</v>
       </c>
       <c r="T8">
-        <v>1.002138786204347</v>
+        <v>0.8293554373976649</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9540881241053801</v>
+        <v>0.9857061755920503</v>
       </c>
       <c r="D9">
-        <v>0.8833470588205872</v>
+        <v>0.9615614082344962</v>
       </c>
       <c r="E9">
-        <v>0.8833470588205872</v>
+        <v>0.9615614082344962</v>
       </c>
       <c r="F9">
-        <v>1.097522422524745</v>
+        <v>1.044422583537089</v>
       </c>
       <c r="G9">
-        <v>1.097522422524745</v>
+        <v>1.044422583537089</v>
       </c>
       <c r="H9">
-        <v>0.9090543681114364</v>
+        <v>0.9560721459737525</v>
       </c>
       <c r="I9">
-        <v>0.9505537298916452</v>
+        <v>0.9707220534349087</v>
       </c>
       <c r="J9">
-        <v>0.9847854886103488</v>
+        <v>1.000316256542099</v>
       </c>
       <c r="K9">
-        <v>1.097522422524745</v>
+        <v>1.044422583537089</v>
       </c>
       <c r="L9">
-        <v>0.9540881241053801</v>
+        <v>0.9857061755920503</v>
       </c>
       <c r="M9">
-        <v>0.9187175914629837</v>
+        <v>0.9736337919132733</v>
       </c>
       <c r="N9">
-        <v>0.9187175914629837</v>
+        <v>0.9736337919132733</v>
       </c>
       <c r="O9">
-        <v>0.9154965170124679</v>
+        <v>0.9677799099334331</v>
       </c>
       <c r="P9">
-        <v>0.978319201816904</v>
+        <v>0.9972300557878784</v>
       </c>
       <c r="Q9">
-        <v>0.978319201816904</v>
+        <v>0.9972300557878784</v>
       </c>
       <c r="R9">
-        <v>1.008120006993864</v>
+        <v>1.009028187725181</v>
       </c>
       <c r="S9">
-        <v>1.008120006993864</v>
+        <v>1.009028187725181</v>
       </c>
       <c r="T9">
-        <v>0.9632251986773571</v>
+        <v>0.9864667705523992</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.905140278628114</v>
+        <v>0.9924101642594766</v>
       </c>
       <c r="D10">
-        <v>0.3898686561382471</v>
+        <v>1.000319665283988</v>
       </c>
       <c r="E10">
-        <v>0.3898686561382471</v>
+        <v>1.000319665283988</v>
       </c>
       <c r="F10">
-        <v>0.4241209566330847</v>
+        <v>1.022235747652223</v>
       </c>
       <c r="G10">
-        <v>0.4241209566330847</v>
+        <v>1.022235747652223</v>
       </c>
       <c r="H10">
-        <v>0.4244384761912957</v>
+        <v>0.9981719549974212</v>
       </c>
       <c r="I10">
-        <v>1.318968696610348</v>
+        <v>0.9991074780891017</v>
       </c>
       <c r="J10">
-        <v>0.5338203554369967</v>
+        <v>1.000587706943871</v>
       </c>
       <c r="K10">
-        <v>0.4241209566330847</v>
+        <v>1.022235747652223</v>
       </c>
       <c r="L10">
-        <v>1.905140278628114</v>
+        <v>0.9924101642594766</v>
       </c>
       <c r="M10">
-        <v>1.147504467383181</v>
+        <v>0.9963649147717324</v>
       </c>
       <c r="N10">
-        <v>1.147504467383181</v>
+        <v>0.9963649147717324</v>
       </c>
       <c r="O10">
-        <v>0.906482470319219</v>
+        <v>0.9969672615136287</v>
       </c>
       <c r="P10">
-        <v>0.906376630466482</v>
+        <v>1.004988525731896</v>
       </c>
       <c r="Q10">
-        <v>0.9063766304664821</v>
+        <v>1.004988525731896</v>
       </c>
       <c r="R10">
-        <v>0.7858127120081327</v>
+        <v>1.009300331211977</v>
       </c>
       <c r="S10">
-        <v>0.7858127120081327</v>
+        <v>1.009300331211977</v>
       </c>
       <c r="T10">
-        <v>0.8327262366063478</v>
+        <v>1.002138786204347</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.057043000884533</v>
+        <v>0.9540881241053801</v>
       </c>
       <c r="D11">
-        <v>0.718894460452329</v>
+        <v>0.8833470588205872</v>
       </c>
       <c r="E11">
-        <v>0.718894460452329</v>
+        <v>0.8833470588205872</v>
       </c>
       <c r="F11">
-        <v>0.9524587636510651</v>
+        <v>1.097522422524745</v>
       </c>
       <c r="G11">
-        <v>0.9524587636510651</v>
+        <v>1.097522422524745</v>
       </c>
       <c r="H11">
-        <v>0.8053877144018485</v>
+        <v>0.9090543681114364</v>
       </c>
       <c r="I11">
-        <v>1.584298685331343</v>
+        <v>0.9505537298916452</v>
       </c>
       <c r="J11">
-        <v>1.027201277842301</v>
+        <v>0.9847854886103488</v>
       </c>
       <c r="K11">
-        <v>0.9524587636510651</v>
+        <v>1.097522422524745</v>
       </c>
       <c r="L11">
-        <v>1.057043000884533</v>
+        <v>0.9540881241053801</v>
       </c>
       <c r="M11">
-        <v>0.8879687306684307</v>
+        <v>0.9187175914629837</v>
       </c>
       <c r="N11">
-        <v>0.8879687306684307</v>
+        <v>0.9187175914629837</v>
       </c>
       <c r="O11">
-        <v>0.8604417252462366</v>
+        <v>0.9154965170124679</v>
       </c>
       <c r="P11">
-        <v>0.9094654083293089</v>
+        <v>0.978319201816904</v>
       </c>
       <c r="Q11">
-        <v>0.9094654083293089</v>
+        <v>0.978319201816904</v>
       </c>
       <c r="R11">
-        <v>0.9202137471597479</v>
+        <v>1.008120006993864</v>
       </c>
       <c r="S11">
-        <v>0.9202137471597479</v>
+        <v>1.008120006993864</v>
       </c>
       <c r="T11">
-        <v>1.02421398376057</v>
+        <v>0.9632251986773571</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.346899591557416</v>
+        <v>1.905140278628114</v>
       </c>
       <c r="D12">
-        <v>0.8607438057808601</v>
+        <v>0.3898686561382471</v>
       </c>
       <c r="E12">
-        <v>0.8607438057808601</v>
+        <v>0.3898686561382471</v>
       </c>
       <c r="F12">
-        <v>0.7866782592047707</v>
+        <v>0.4241209566330847</v>
       </c>
       <c r="G12">
-        <v>0.7866782592047707</v>
+        <v>0.4241209566330847</v>
       </c>
       <c r="H12">
-        <v>0.8128276654518983</v>
+        <v>0.4244384761912957</v>
       </c>
       <c r="I12">
-        <v>1.386729306052503</v>
+        <v>1.318968696610348</v>
       </c>
       <c r="J12">
-        <v>0.9327596904399375</v>
+        <v>0.5338203554369967</v>
       </c>
       <c r="K12">
-        <v>0.7866782592047707</v>
+        <v>0.4241209566330847</v>
       </c>
       <c r="L12">
-        <v>1.346899591557416</v>
+        <v>1.905140278628114</v>
       </c>
       <c r="M12">
-        <v>1.103821698669138</v>
+        <v>1.147504467383181</v>
       </c>
       <c r="N12">
-        <v>1.103821698669138</v>
+        <v>1.147504467383181</v>
       </c>
       <c r="O12">
-        <v>1.006823687596725</v>
+        <v>0.906482470319219</v>
       </c>
       <c r="P12">
-        <v>0.9981072188476823</v>
+        <v>0.906376630466482</v>
       </c>
       <c r="Q12">
-        <v>0.9981072188476823</v>
+        <v>0.9063766304664821</v>
       </c>
       <c r="R12">
-        <v>0.9452499789369544</v>
+        <v>0.7858127120081327</v>
       </c>
       <c r="S12">
-        <v>0.9452499789369544</v>
+        <v>0.7858127120081327</v>
       </c>
       <c r="T12">
-        <v>1.021106386414564</v>
+        <v>0.8327262366063478</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9335712313902128</v>
+        <v>1.057043000884533</v>
       </c>
       <c r="D13">
-        <v>1.329122896001244</v>
+        <v>0.718894460452329</v>
       </c>
       <c r="E13">
-        <v>1.329122896001244</v>
+        <v>0.718894460452329</v>
       </c>
       <c r="F13">
-        <v>0.9967916257202341</v>
+        <v>0.9524587636510651</v>
       </c>
       <c r="G13">
-        <v>0.9967916257202341</v>
+        <v>0.9524587636510651</v>
       </c>
       <c r="H13">
-        <v>1.197692731223272</v>
+        <v>0.8053877144018485</v>
       </c>
       <c r="I13">
-        <v>0.6895765914076277</v>
+        <v>1.584298685331343</v>
       </c>
       <c r="J13">
-        <v>0.9057508427918158</v>
+        <v>1.027201277842301</v>
       </c>
       <c r="K13">
-        <v>0.9967916257202341</v>
+        <v>0.9524587636510651</v>
       </c>
       <c r="L13">
-        <v>0.9335712313902128</v>
+        <v>1.057043000884533</v>
       </c>
       <c r="M13">
-        <v>1.131347063695728</v>
+        <v>0.8879687306684307</v>
       </c>
       <c r="N13">
-        <v>1.131347063695728</v>
+        <v>0.8879687306684307</v>
       </c>
       <c r="O13">
-        <v>1.15346228620491</v>
+        <v>0.8604417252462366</v>
       </c>
       <c r="P13">
-        <v>1.08649525103723</v>
+        <v>0.9094654083293089</v>
       </c>
       <c r="Q13">
-        <v>1.08649525103723</v>
+        <v>0.9094654083293089</v>
       </c>
       <c r="R13">
-        <v>1.064069344707981</v>
+        <v>0.9202137471597479</v>
       </c>
       <c r="S13">
-        <v>1.064069344707981</v>
+        <v>0.9202137471597479</v>
       </c>
       <c r="T13">
-        <v>1.008750986422401</v>
+        <v>1.02421398376057</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>2.516928000000004</v>
+        <v>1.346899591557416</v>
       </c>
       <c r="D14">
-        <v>0.001634488200000002</v>
+        <v>0.8607438057808601</v>
       </c>
       <c r="E14">
-        <v>0.001634488200000002</v>
+        <v>0.8607438057808601</v>
       </c>
       <c r="F14">
-        <v>0.0034725934</v>
+        <v>0.7866782592047707</v>
       </c>
       <c r="G14">
-        <v>0.0034725934</v>
+        <v>0.7866782592047707</v>
       </c>
       <c r="H14">
-        <v>0.002385847899999998</v>
+        <v>0.8128276654518983</v>
       </c>
       <c r="I14">
-        <v>1.228067</v>
+        <v>1.386729306052503</v>
       </c>
       <c r="J14">
-        <v>0.09466050899999992</v>
+        <v>0.9327596904399375</v>
       </c>
       <c r="K14">
-        <v>0.0034725934</v>
+        <v>0.7866782592047707</v>
       </c>
       <c r="L14">
-        <v>2.516928000000004</v>
+        <v>1.346899591557416</v>
       </c>
       <c r="M14">
-        <v>1.259281244100002</v>
+        <v>1.103821698669138</v>
       </c>
       <c r="N14">
-        <v>1.259281244100002</v>
+        <v>1.103821698669138</v>
       </c>
       <c r="O14">
-        <v>0.8403161120333348</v>
+        <v>1.006823687596725</v>
       </c>
       <c r="P14">
-        <v>0.8406783605333349</v>
+        <v>0.9981072188476823</v>
       </c>
       <c r="Q14">
-        <v>0.8406783605333348</v>
+        <v>0.9981072188476823</v>
       </c>
       <c r="R14">
-        <v>0.6313769187500011</v>
+        <v>0.9452499789369544</v>
       </c>
       <c r="S14">
-        <v>0.6313769187500011</v>
+        <v>0.9452499789369544</v>
       </c>
       <c r="T14">
-        <v>0.6411914064166674</v>
+        <v>1.021106386414564</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-0.0012295708</v>
+        <v>0.9335712313902128</v>
       </c>
       <c r="D15">
-        <v>0.0030969418</v>
+        <v>1.329122896001244</v>
       </c>
       <c r="E15">
-        <v>0.0030969418</v>
+        <v>1.329122896001244</v>
       </c>
       <c r="F15">
-        <v>30.381976</v>
+        <v>0.9967916257202341</v>
       </c>
       <c r="G15">
-        <v>30.381976</v>
+        <v>0.9967916257202341</v>
       </c>
       <c r="H15">
-        <v>0.0025420957</v>
+        <v>1.197692731223272</v>
       </c>
       <c r="I15">
-        <v>-0.0027921709</v>
+        <v>0.6895765914076277</v>
       </c>
       <c r="J15">
-        <v>0.0037430372</v>
+        <v>0.9057508427918158</v>
       </c>
       <c r="K15">
-        <v>30.381976</v>
+        <v>0.9967916257202341</v>
       </c>
       <c r="L15">
-        <v>-0.0012295708</v>
+        <v>0.9335712313902128</v>
       </c>
       <c r="M15">
-        <v>0.0009336855</v>
+        <v>1.131347063695728</v>
       </c>
       <c r="N15">
-        <v>0.0009336855</v>
+        <v>1.131347063695728</v>
       </c>
       <c r="O15">
-        <v>0.001469822233333333</v>
+        <v>1.15346228620491</v>
       </c>
       <c r="P15">
-        <v>10.12794779033333</v>
+        <v>1.08649525103723</v>
       </c>
       <c r="Q15">
-        <v>10.12794779033333</v>
+        <v>1.08649525103723</v>
       </c>
       <c r="R15">
-        <v>15.19145484275</v>
+        <v>1.064069344707981</v>
       </c>
       <c r="S15">
-        <v>15.19145484275</v>
+        <v>1.064069344707981</v>
       </c>
       <c r="T15">
-        <v>5.0645560555</v>
+        <v>1.008750986422401</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.41386905</v>
+        <v>2.516928000000004</v>
       </c>
       <c r="D16">
-        <v>0.0022977741</v>
+        <v>0.001634488200000002</v>
       </c>
       <c r="E16">
-        <v>0.0022977741</v>
+        <v>0.001634488200000002</v>
       </c>
       <c r="F16">
-        <v>0.0063529765</v>
+        <v>0.0034725934</v>
       </c>
       <c r="G16">
-        <v>0.0063529765</v>
+        <v>0.0034725934</v>
       </c>
       <c r="H16">
-        <v>-0.0019492098</v>
+        <v>0.002385847899999998</v>
       </c>
       <c r="I16">
-        <v>7.5462939</v>
+        <v>1.228067</v>
       </c>
       <c r="J16">
-        <v>0.01216444</v>
+        <v>0.09466050899999992</v>
       </c>
       <c r="K16">
-        <v>0.0063529765</v>
+        <v>0.0034725934</v>
       </c>
       <c r="L16">
-        <v>0.41386905</v>
+        <v>2.516928000000004</v>
       </c>
       <c r="M16">
-        <v>0.20808341205</v>
+        <v>1.259281244100002</v>
       </c>
       <c r="N16">
-        <v>0.20808341205</v>
+        <v>1.259281244100002</v>
       </c>
       <c r="O16">
-        <v>0.1380725381</v>
+        <v>0.8403161120333348</v>
       </c>
       <c r="P16">
-        <v>0.1408399335333333</v>
+        <v>0.8406783605333349</v>
       </c>
       <c r="Q16">
-        <v>0.1408399335333333</v>
+        <v>0.8406783605333348</v>
       </c>
       <c r="R16">
-        <v>0.107218194275</v>
+        <v>0.6313769187500011</v>
       </c>
       <c r="S16">
-        <v>0.107218194275</v>
+        <v>0.6313769187500011</v>
       </c>
       <c r="T16">
-        <v>1.329838155133333</v>
+        <v>0.6411914064166674</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.00029408995</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="D17">
-        <v>0.017146586</v>
+        <v>0.0030969418</v>
       </c>
       <c r="E17">
-        <v>0.017146586</v>
+        <v>0.0030969418</v>
       </c>
       <c r="F17">
-        <v>0.10516769</v>
+        <v>30.381976</v>
       </c>
       <c r="G17">
-        <v>0.10516769</v>
+        <v>30.381976</v>
       </c>
       <c r="H17">
-        <v>0.10673748</v>
+        <v>0.0025420957</v>
       </c>
       <c r="I17">
-        <v>-0.0029833669</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="J17">
-        <v>0.23952287</v>
+        <v>0.0037430372</v>
       </c>
       <c r="K17">
-        <v>0.10516769</v>
+        <v>30.381976</v>
       </c>
       <c r="L17">
-        <v>0.00029408995</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M17">
-        <v>0.008720337974999999</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N17">
-        <v>0.008720337974999999</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O17">
-        <v>0.04139271865</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P17">
-        <v>0.04086945531666666</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q17">
-        <v>0.04086945531666667</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R17">
-        <v>0.0569440139875</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S17">
-        <v>0.0569440139875</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T17">
-        <v>0.07764755817500001</v>
+        <v>5.0645560555</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7497518671079453</v>
+        <v>0.41386905</v>
       </c>
       <c r="D18">
-        <v>-0.0001733043334246576</v>
+        <v>0.0022977741</v>
       </c>
       <c r="E18">
-        <v>-0.0001733043334246576</v>
+        <v>0.0022977741</v>
       </c>
       <c r="F18">
-        <v>2.427978069021918</v>
+        <v>0.0063529765</v>
       </c>
       <c r="G18">
-        <v>2.427978069021918</v>
+        <v>0.0063529765</v>
       </c>
       <c r="H18">
-        <v>0.01343725088958904</v>
+        <v>-0.0019492098</v>
       </c>
       <c r="I18">
-        <v>0.4420116470917808</v>
+        <v>7.5462939</v>
       </c>
       <c r="J18">
-        <v>1.013467748432877</v>
+        <v>0.01216444</v>
       </c>
       <c r="K18">
-        <v>2.427978069021918</v>
+        <v>0.0063529765</v>
       </c>
       <c r="L18">
-        <v>0.7497518671079453</v>
+        <v>0.41386905</v>
       </c>
       <c r="M18">
-        <v>0.3747892813872603</v>
+        <v>0.20808341205</v>
       </c>
       <c r="N18">
-        <v>0.3747892813872603</v>
+        <v>0.20808341205</v>
       </c>
       <c r="O18">
-        <v>0.2543386045547032</v>
+        <v>0.1380725381</v>
       </c>
       <c r="P18">
-        <v>1.059185543932146</v>
+        <v>0.1408399335333333</v>
       </c>
       <c r="Q18">
-        <v>1.059185543932146</v>
+        <v>0.1408399335333333</v>
       </c>
       <c r="R18">
-        <v>1.401383675204589</v>
+        <v>0.107218194275</v>
       </c>
       <c r="S18">
-        <v>1.401383675204589</v>
+        <v>0.107218194275</v>
       </c>
       <c r="T18">
-        <v>0.7744122130351143</v>
+        <v>1.329838155133333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.782396051523685</v>
+        <v>0.00029408995</v>
       </c>
       <c r="D19">
-        <v>3.407042811656841</v>
+        <v>0.017146586</v>
       </c>
       <c r="E19">
-        <v>3.407042811656841</v>
+        <v>0.017146586</v>
       </c>
       <c r="F19">
-        <v>1.704754748814842</v>
+        <v>0.10516769</v>
       </c>
       <c r="G19">
-        <v>1.704754748814842</v>
+        <v>0.10516769</v>
       </c>
       <c r="H19">
-        <v>0.03204713580263158</v>
+        <v>0.10673748</v>
       </c>
       <c r="I19">
-        <v>5.340428626394736</v>
+        <v>-0.0029833669</v>
       </c>
       <c r="J19">
-        <v>0.1297465259352632</v>
+        <v>0.23952287</v>
       </c>
       <c r="K19">
-        <v>1.704754748814842</v>
+        <v>0.10516769</v>
       </c>
       <c r="L19">
-        <v>1.782396051523685</v>
+        <v>0.00029408995</v>
       </c>
       <c r="M19">
-        <v>2.594719431590263</v>
+        <v>0.008720337974999999</v>
       </c>
       <c r="N19">
-        <v>2.594719431590263</v>
+        <v>0.008720337974999999</v>
       </c>
       <c r="O19">
-        <v>1.740495332994386</v>
+        <v>0.04139271865</v>
       </c>
       <c r="P19">
-        <v>2.298064537331789</v>
+        <v>0.04086945531666666</v>
       </c>
       <c r="Q19">
-        <v>2.298064537331789</v>
+        <v>0.04086945531666667</v>
       </c>
       <c r="R19">
-        <v>2.149737090202553</v>
+        <v>0.0569440139875</v>
       </c>
       <c r="S19">
-        <v>2.149737090202553</v>
+        <v>0.0569440139875</v>
       </c>
       <c r="T19">
-        <v>2.066069316688</v>
+        <v>0.07764755817500001</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.297729018127369</v>
+        <v>0.7497518671079453</v>
       </c>
       <c r="D20">
-        <v>0.0007504029778947371</v>
+        <v>-0.0001733043334246576</v>
       </c>
       <c r="E20">
-        <v>0.0007504029778947371</v>
+        <v>-0.0001733043334246576</v>
       </c>
       <c r="F20">
-        <v>3.390952179156842</v>
+        <v>2.427978069021918</v>
       </c>
       <c r="G20">
-        <v>3.390952179156842</v>
+        <v>2.427978069021918</v>
       </c>
       <c r="H20">
-        <v>0.002099502468947368</v>
+        <v>0.01343725088958904</v>
       </c>
       <c r="I20">
-        <v>0.102149162568421</v>
+        <v>0.4420116470917808</v>
       </c>
       <c r="J20">
-        <v>1.292535520063158</v>
+        <v>1.013467748432877</v>
       </c>
       <c r="K20">
-        <v>3.390952179156842</v>
+        <v>2.427978069021918</v>
       </c>
       <c r="L20">
-        <v>1.297729018127369</v>
+        <v>0.7497518671079453</v>
       </c>
       <c r="M20">
-        <v>0.6492397105526317</v>
+        <v>0.3747892813872603</v>
       </c>
       <c r="N20">
-        <v>0.6492397105526317</v>
+        <v>0.3747892813872603</v>
       </c>
       <c r="O20">
-        <v>0.4335263078580703</v>
+        <v>0.2543386045547032</v>
       </c>
       <c r="P20">
-        <v>1.563143866754035</v>
+        <v>1.059185543932146</v>
       </c>
       <c r="Q20">
-        <v>1.563143866754035</v>
+        <v>1.059185543932146</v>
       </c>
       <c r="R20">
-        <v>2.020095944854737</v>
+        <v>1.401383675204589</v>
       </c>
       <c r="S20">
-        <v>2.020095944854737</v>
+        <v>1.401383675204589</v>
       </c>
       <c r="T20">
-        <v>1.014369297560439</v>
+        <v>0.7744122130351143</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.1746352361111097</v>
+        <v>1.782396051523685</v>
       </c>
       <c r="D21">
-        <v>3.41978210220953</v>
+        <v>3.407042811656841</v>
       </c>
       <c r="E21">
-        <v>3.41978210220953</v>
+        <v>3.407042811656841</v>
       </c>
       <c r="F21">
-        <v>1.919705994951049</v>
+        <v>1.704754748814842</v>
       </c>
       <c r="G21">
-        <v>1.919705994951049</v>
+        <v>1.704754748814842</v>
       </c>
       <c r="H21">
-        <v>1.834740474472013</v>
+        <v>0.03204713580263158</v>
       </c>
       <c r="I21">
-        <v>0.1456247915945228</v>
+        <v>5.340428626394736</v>
       </c>
       <c r="J21">
-        <v>1.059089774778224</v>
+        <v>0.1297465259352632</v>
       </c>
       <c r="K21">
-        <v>1.919705994951049</v>
+        <v>1.704754748814842</v>
       </c>
       <c r="L21">
-        <v>0.1746352361111097</v>
+        <v>1.782396051523685</v>
       </c>
       <c r="M21">
-        <v>1.79720866916032</v>
+        <v>2.594719431590263</v>
       </c>
       <c r="N21">
-        <v>1.79720866916032</v>
+        <v>2.594719431590263</v>
       </c>
       <c r="O21">
-        <v>1.809719270930884</v>
+        <v>1.740495332994386</v>
       </c>
       <c r="P21">
-        <v>1.838041111090563</v>
+        <v>2.298064537331789</v>
       </c>
       <c r="Q21">
-        <v>1.838041111090563</v>
+        <v>2.298064537331789</v>
       </c>
       <c r="R21">
-        <v>1.858457332055684</v>
+        <v>2.149737090202553</v>
       </c>
       <c r="S21">
-        <v>1.858457332055684</v>
+        <v>2.149737090202553</v>
       </c>
       <c r="T21">
-        <v>1.425596395686075</v>
+        <v>2.066069316688</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.232545222439271</v>
+        <v>1.297729018127369</v>
       </c>
       <c r="D22">
-        <v>0.002627809240744217</v>
+        <v>0.0007504029778947371</v>
       </c>
       <c r="E22">
-        <v>0.002627809240744217</v>
+        <v>0.0007504029778947371</v>
       </c>
       <c r="F22">
-        <v>0.02078027073299304</v>
+        <v>3.390952179156842</v>
       </c>
       <c r="G22">
-        <v>0.02078027073299304</v>
+        <v>3.390952179156842</v>
       </c>
       <c r="H22">
-        <v>1.68803231914856</v>
+        <v>0.002099502468947368</v>
       </c>
       <c r="I22">
-        <v>1.369476199899434</v>
+        <v>0.102149162568421</v>
       </c>
       <c r="J22">
-        <v>0.9313387374426676</v>
+        <v>1.292535520063158</v>
       </c>
       <c r="K22">
-        <v>0.02078027073299304</v>
+        <v>3.390952179156842</v>
       </c>
       <c r="L22">
-        <v>1.232545222439271</v>
+        <v>1.297729018127369</v>
       </c>
       <c r="M22">
-        <v>0.6175865158400077</v>
+        <v>0.6492397105526317</v>
       </c>
       <c r="N22">
-        <v>0.6175865158400077</v>
+        <v>0.6492397105526317</v>
       </c>
       <c r="O22">
-        <v>0.9744017836095252</v>
+        <v>0.4335263078580703</v>
       </c>
       <c r="P22">
-        <v>0.4186511008043361</v>
+        <v>1.563143866754035</v>
       </c>
       <c r="Q22">
-        <v>0.4186511008043362</v>
+        <v>1.563143866754035</v>
       </c>
       <c r="R22">
-        <v>0.3191833932865004</v>
+        <v>2.020095944854737</v>
       </c>
       <c r="S22">
-        <v>0.3191833932865004</v>
+        <v>2.020095944854737</v>
       </c>
       <c r="T22">
-        <v>0.874133426483945</v>
+        <v>1.014369297560439</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.200527794721968</v>
+        <v>0.1746352361111097</v>
       </c>
       <c r="D23">
-        <v>0.02839472598084422</v>
+        <v>3.41978210220953</v>
       </c>
       <c r="E23">
-        <v>0.02839472598084422</v>
+        <v>3.41978210220953</v>
       </c>
       <c r="F23">
-        <v>0.8442444508594681</v>
+        <v>1.919705994951049</v>
       </c>
       <c r="G23">
-        <v>0.8442444508594681</v>
+        <v>1.919705994951049</v>
       </c>
       <c r="H23">
-        <v>1.667427177532818</v>
+        <v>1.834740474472013</v>
       </c>
       <c r="I23">
-        <v>0.007220350187736538</v>
+        <v>0.1456247915945228</v>
       </c>
       <c r="J23">
-        <v>1.46987205148518</v>
+        <v>1.059089774778224</v>
       </c>
       <c r="K23">
-        <v>0.8442444508594681</v>
+        <v>1.919705994951049</v>
       </c>
       <c r="L23">
-        <v>1.200527794721968</v>
+        <v>0.1746352361111097</v>
       </c>
       <c r="M23">
-        <v>0.6144612603514059</v>
+        <v>1.79720866916032</v>
       </c>
       <c r="N23">
-        <v>0.6144612603514059</v>
+        <v>1.79720866916032</v>
       </c>
       <c r="O23">
-        <v>0.9654498994118766</v>
+        <v>1.809719270930884</v>
       </c>
       <c r="P23">
-        <v>0.6910556571874267</v>
+        <v>1.838041111090563</v>
       </c>
       <c r="Q23">
-        <v>0.6910556571874267</v>
+        <v>1.838041111090563</v>
       </c>
       <c r="R23">
-        <v>0.7293528556054371</v>
+        <v>1.858457332055684</v>
       </c>
       <c r="S23">
-        <v>0.7293528556054371</v>
+        <v>1.858457332055684</v>
       </c>
       <c r="T23">
-        <v>0.8696144251280025</v>
+        <v>1.425596395686075</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.4933474806868863</v>
+        <v>1.232545222439271</v>
       </c>
       <c r="D24">
-        <v>3.312680609107422</v>
+        <v>0.002627809240744217</v>
       </c>
       <c r="E24">
-        <v>3.312680609107422</v>
+        <v>0.002627809240744217</v>
       </c>
       <c r="F24">
-        <v>1.098291033998245</v>
+        <v>0.02078027073299304</v>
       </c>
       <c r="G24">
-        <v>1.098291033998245</v>
+        <v>0.02078027073299304</v>
       </c>
       <c r="H24">
-        <v>0.6057433515298005</v>
+        <v>1.68803231914856</v>
       </c>
       <c r="I24">
-        <v>1.629499496735312</v>
+        <v>1.369476199899434</v>
       </c>
       <c r="J24">
-        <v>0.6647097133222074</v>
+        <v>0.9313387374426676</v>
       </c>
       <c r="K24">
-        <v>1.098291033998245</v>
+        <v>0.02078027073299304</v>
       </c>
       <c r="L24">
-        <v>0.4933474806868863</v>
+        <v>1.232545222439271</v>
       </c>
       <c r="M24">
-        <v>1.903014044897154</v>
+        <v>0.6175865158400077</v>
       </c>
       <c r="N24">
-        <v>1.903014044897154</v>
+        <v>0.6175865158400077</v>
       </c>
       <c r="O24">
-        <v>1.47059048044137</v>
+        <v>0.9744017836095252</v>
       </c>
       <c r="P24">
-        <v>1.634773041264184</v>
+        <v>0.4186511008043361</v>
       </c>
       <c r="Q24">
-        <v>1.634773041264184</v>
+        <v>0.4186511008043362</v>
       </c>
       <c r="R24">
-        <v>1.500652539447699</v>
+        <v>0.3191833932865004</v>
       </c>
       <c r="S24">
-        <v>1.500652539447699</v>
+        <v>0.3191833932865004</v>
       </c>
       <c r="T24">
-        <v>1.300711947563312</v>
+        <v>0.874133426483945</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.03829527384742094</v>
+        <v>1.200527794721968</v>
       </c>
       <c r="D25">
-        <v>0.0003570773304294618</v>
+        <v>0.02839472598084422</v>
       </c>
       <c r="E25">
-        <v>0.0003570773304294618</v>
+        <v>0.02839472598084422</v>
       </c>
       <c r="F25">
-        <v>3.552846995791232</v>
+        <v>0.8442444508594681</v>
       </c>
       <c r="G25">
-        <v>3.552846995791232</v>
+        <v>0.8442444508594681</v>
       </c>
       <c r="H25">
-        <v>0.7087197802050512</v>
+        <v>1.667427177532818</v>
       </c>
       <c r="I25">
-        <v>-0.0001626144265404667</v>
+        <v>0.007220350187736538</v>
       </c>
       <c r="J25">
-        <v>1.29605829636931</v>
+        <v>1.46987205148518</v>
       </c>
       <c r="K25">
-        <v>3.552846995791232</v>
+        <v>0.8442444508594681</v>
       </c>
       <c r="L25">
-        <v>0.03829527384742094</v>
+        <v>1.200527794721968</v>
       </c>
       <c r="M25">
-        <v>0.0193261755889252</v>
+        <v>0.6144612603514059</v>
       </c>
       <c r="N25">
-        <v>0.0193261755889252</v>
+        <v>0.6144612603514059</v>
       </c>
       <c r="O25">
-        <v>0.2491240437943005</v>
+        <v>0.9654498994118766</v>
       </c>
       <c r="P25">
-        <v>1.197166448989694</v>
+        <v>0.6910556571874267</v>
       </c>
       <c r="Q25">
-        <v>1.197166448989694</v>
+        <v>0.6910556571874267</v>
       </c>
       <c r="R25">
-        <v>1.786086585690079</v>
+        <v>0.7293528556054371</v>
       </c>
       <c r="S25">
-        <v>1.786086585690079</v>
+        <v>0.7293528556054371</v>
       </c>
       <c r="T25">
-        <v>0.9326858015194839</v>
+        <v>0.8696144251280025</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>2.15177690109503</v>
+        <v>0.4933474806868863</v>
       </c>
       <c r="D26">
-        <v>0.2236415219262789</v>
+        <v>3.312680609107422</v>
       </c>
       <c r="E26">
-        <v>0.2236415219262789</v>
+        <v>3.312680609107422</v>
       </c>
       <c r="F26">
-        <v>0.002114408865913423</v>
+        <v>1.098291033998245</v>
       </c>
       <c r="G26">
-        <v>0.002114408865913423</v>
+        <v>1.098291033998245</v>
       </c>
       <c r="H26">
-        <v>0.393832063501361</v>
+        <v>0.6057433515298005</v>
       </c>
       <c r="I26">
-        <v>0.3882538665739836</v>
+        <v>1.629499496735312</v>
       </c>
       <c r="J26">
-        <v>1.117268478500608</v>
+        <v>0.6647097133222074</v>
       </c>
       <c r="K26">
-        <v>0.002114408865913423</v>
+        <v>1.098291033998245</v>
       </c>
       <c r="L26">
-        <v>2.15177690109503</v>
+        <v>0.4933474806868863</v>
       </c>
       <c r="M26">
-        <v>1.187709211510654</v>
+        <v>1.903014044897154</v>
       </c>
       <c r="N26">
-        <v>1.187709211510654</v>
+        <v>1.903014044897154</v>
       </c>
       <c r="O26">
-        <v>0.9230834955075564</v>
+        <v>1.47059048044137</v>
       </c>
       <c r="P26">
-        <v>0.7925109439624073</v>
+        <v>1.634773041264184</v>
       </c>
       <c r="Q26">
-        <v>0.7925109439624073</v>
+        <v>1.634773041264184</v>
       </c>
       <c r="R26">
-        <v>0.5949118101882838</v>
+        <v>1.500652539447699</v>
       </c>
       <c r="S26">
-        <v>0.5949118101882838</v>
+        <v>1.500652539447699</v>
       </c>
       <c r="T26">
-        <v>0.7128145400771957</v>
+        <v>1.300711947563312</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.408981749626427</v>
+        <v>0.03829527384742094</v>
       </c>
       <c r="D27">
-        <v>0.1986131887835528</v>
+        <v>0.0003570773304294618</v>
       </c>
       <c r="E27">
-        <v>0.1986131887835528</v>
+        <v>0.0003570773304294618</v>
       </c>
       <c r="F27">
-        <v>0.8918557873615087</v>
+        <v>3.552846995791232</v>
       </c>
       <c r="G27">
-        <v>0.8918557873615087</v>
+        <v>3.552846995791232</v>
       </c>
       <c r="H27">
-        <v>0.6001301972786812</v>
+        <v>0.7087197802050512</v>
       </c>
       <c r="I27">
-        <v>0.1424176112472805</v>
+        <v>-0.0001626144265404667</v>
       </c>
       <c r="J27">
-        <v>0.9466788117033434</v>
+        <v>1.29605829636931</v>
       </c>
       <c r="K27">
-        <v>0.8918557873615087</v>
+        <v>3.552846995791232</v>
       </c>
       <c r="L27">
-        <v>1.408981749626427</v>
+        <v>0.03829527384742094</v>
       </c>
       <c r="M27">
-        <v>0.8037974692049901</v>
+        <v>0.0193261755889252</v>
       </c>
       <c r="N27">
-        <v>0.8037974692049901</v>
+        <v>0.0193261755889252</v>
       </c>
       <c r="O27">
-        <v>0.735908378562887</v>
+        <v>0.2491240437943005</v>
       </c>
       <c r="P27">
-        <v>0.8331502419238296</v>
+        <v>1.197166448989694</v>
       </c>
       <c r="Q27">
-        <v>0.8331502419238296</v>
+        <v>1.197166448989694</v>
       </c>
       <c r="R27">
-        <v>0.8478266282832494</v>
+        <v>1.786086585690079</v>
       </c>
       <c r="S27">
-        <v>0.8478266282832494</v>
+        <v>1.786086585690079</v>
       </c>
       <c r="T27">
-        <v>0.6981128910001323</v>
+        <v>0.9326858015194839</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.232552382753618</v>
+        <v>2.15177690109503</v>
       </c>
       <c r="D28">
-        <v>0.7579471914394138</v>
+        <v>0.2236415219262789</v>
       </c>
       <c r="E28">
-        <v>0.7579471914394138</v>
+        <v>0.2236415219262789</v>
       </c>
       <c r="F28">
-        <v>1.313791119586462</v>
+        <v>0.002114408865913423</v>
       </c>
       <c r="G28">
-        <v>1.313791119586462</v>
+        <v>0.002114408865913423</v>
       </c>
       <c r="H28">
-        <v>0.7407978461933387</v>
+        <v>0.393832063501361</v>
       </c>
       <c r="I28">
-        <v>0.1538761521788974</v>
+        <v>0.3882538665739836</v>
       </c>
       <c r="J28">
-        <v>1.251089848587025</v>
+        <v>1.117268478500608</v>
       </c>
       <c r="K28">
-        <v>1.313791119586462</v>
+        <v>0.002114408865913423</v>
       </c>
       <c r="L28">
-        <v>1.232552382753618</v>
+        <v>2.15177690109503</v>
       </c>
       <c r="M28">
-        <v>0.9952497870965157</v>
+        <v>1.187709211510654</v>
       </c>
       <c r="N28">
-        <v>0.9952497870965157</v>
+        <v>1.187709211510654</v>
       </c>
       <c r="O28">
-        <v>0.9104324734621233</v>
+        <v>0.9230834955075564</v>
       </c>
       <c r="P28">
-        <v>1.101430231259831</v>
+        <v>0.7925109439624073</v>
       </c>
       <c r="Q28">
-        <v>1.101430231259831</v>
+        <v>0.7925109439624073</v>
       </c>
       <c r="R28">
-        <v>1.154520453341489</v>
+        <v>0.5949118101882838</v>
       </c>
       <c r="S28">
-        <v>1.154520453341489</v>
+        <v>0.5949118101882838</v>
       </c>
       <c r="T28">
-        <v>0.9083424234564591</v>
+        <v>0.7128145400771957</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.408981749626427</v>
+      </c>
+      <c r="D29">
+        <v>0.1986131887835528</v>
+      </c>
+      <c r="E29">
+        <v>0.1986131887835528</v>
+      </c>
+      <c r="F29">
+        <v>0.8918557873615087</v>
+      </c>
+      <c r="G29">
+        <v>0.8918557873615087</v>
+      </c>
+      <c r="H29">
+        <v>0.6001301972786812</v>
+      </c>
+      <c r="I29">
+        <v>0.1424176112472805</v>
+      </c>
+      <c r="J29">
+        <v>0.9466788117033434</v>
+      </c>
+      <c r="K29">
+        <v>0.8918557873615087</v>
+      </c>
+      <c r="L29">
+        <v>1.408981749626427</v>
+      </c>
+      <c r="M29">
+        <v>0.8037974692049901</v>
+      </c>
+      <c r="N29">
+        <v>0.8037974692049901</v>
+      </c>
+      <c r="O29">
+        <v>0.735908378562887</v>
+      </c>
+      <c r="P29">
+        <v>0.8331502419238296</v>
+      </c>
+      <c r="Q29">
+        <v>0.8331502419238296</v>
+      </c>
+      <c r="R29">
+        <v>0.8478266282832494</v>
+      </c>
+      <c r="S29">
+        <v>0.8478266282832494</v>
+      </c>
+      <c r="T29">
+        <v>0.6981128910001323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.232552382753618</v>
+      </c>
+      <c r="D30">
+        <v>0.7579471914394138</v>
+      </c>
+      <c r="E30">
+        <v>0.7579471914394138</v>
+      </c>
+      <c r="F30">
+        <v>1.313791119586462</v>
+      </c>
+      <c r="G30">
+        <v>1.313791119586462</v>
+      </c>
+      <c r="H30">
+        <v>0.7407978461933387</v>
+      </c>
+      <c r="I30">
+        <v>0.1538761521788974</v>
+      </c>
+      <c r="J30">
+        <v>1.251089848587025</v>
+      </c>
+      <c r="K30">
+        <v>1.313791119586462</v>
+      </c>
+      <c r="L30">
+        <v>1.232552382753618</v>
+      </c>
+      <c r="M30">
+        <v>0.9952497870965157</v>
+      </c>
+      <c r="N30">
+        <v>0.9952497870965157</v>
+      </c>
+      <c r="O30">
+        <v>0.9104324734621233</v>
+      </c>
+      <c r="P30">
+        <v>1.101430231259831</v>
+      </c>
+      <c r="Q30">
+        <v>1.101430231259831</v>
+      </c>
+      <c r="R30">
+        <v>1.154520453341489</v>
+      </c>
+      <c r="S30">
+        <v>1.154520453341489</v>
+      </c>
+      <c r="T30">
+        <v>0.9083424234564591</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.8364776210895906</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.705368568503782</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.705368568503782</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>2.95008163460593</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>2.95008163460593</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.489114897479306</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.1823117770501157</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.5057787625478063</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>2.95008163460593</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.8364776210895906</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.270923094796686</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.270923094796686</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.343653695690893</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.830642608066434</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.830642608066434</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>2.110502364701309</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>2.110502364701309</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.278188876879422</v>
       </c>
     </row>
